--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10202.39131403244</v>
+        <v>8593.110141872319</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>239.9879130210782</v>
       </c>
       <c r="C11" t="n">
-        <v>222.5269631286052</v>
+        <v>18.28813165778969</v>
       </c>
       <c r="D11" t="n">
         <v>211.9371129782806</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>93.81019651517641</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>269.7464768811126</v>
       </c>
       <c r="H11" t="n">
         <v>167.9475609641862</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.23370068480159</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>68.04769262841234</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>185.0063298277325</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9851720360666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>243.4920100136512</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31.09873726034392</v>
+        <v>45.30453975724154</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>4.699136922236363</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>14.89915181299855</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>2.323283750981489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.007414148727282</v>
+        <v>1.007414148727314</v>
       </c>
       <c r="T12" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U12" t="n">
-        <v>83.0965284268391</v>
+        <v>83.09652842683913</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>90.05465850702291</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>108.9490545185172</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>63.02705656107511</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>62.936767134902</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08605153953491</v>
+        <v>37.08605153953494</v>
       </c>
       <c r="C13" t="n">
-        <v>24.50089245622544</v>
+        <v>24.50089245622547</v>
       </c>
       <c r="D13" t="n">
-        <v>5.869544375809966</v>
+        <v>5.869544375809994</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.688034004166809</v>
       </c>
       <c r="F13" t="n">
-        <v>2.675119380528855</v>
+        <v>2.675119380528884</v>
       </c>
       <c r="G13" t="n">
-        <v>23.98443253374976</v>
+        <v>95.34654286095075</v>
       </c>
       <c r="H13" t="n">
-        <v>106.0033019704548</v>
+        <v>8.273202207802107</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>59.30153252655383</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T13" t="n">
-        <v>79.81338309784178</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U13" t="n">
         <v>143.5043397223263</v>
@@ -1591,10 +1591,10 @@
         <v>143.7770696941886</v>
       </c>
       <c r="X13" t="n">
-        <v>82.96372674663476</v>
+        <v>82.96372674663479</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.8387247096924</v>
+        <v>75.83872470969243</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>239.9879130210782</v>
       </c>
       <c r="C14" t="n">
-        <v>222.5269631286052</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>239.1844414298594</v>
       </c>
       <c r="F14" t="n">
-        <v>264.130117099309</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G14" t="n">
         <v>269.7464768811126</v>
       </c>
       <c r="H14" t="n">
-        <v>56.9983217136017</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801562</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>68.04769262841234</v>
       </c>
       <c r="U14" t="n">
-        <v>108.3748977061045</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.0982775836213</v>
       </c>
       <c r="Y14" t="n">
         <v>243.4920100136512</v>
@@ -1683,19 +1683,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.017792271286</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>29.96257034591335</v>
+        <v>29.96257034591338</v>
       </c>
       <c r="D15" t="n">
-        <v>4.699136922236363</v>
+        <v>4.699136922236391</v>
       </c>
       <c r="E15" t="n">
-        <v>14.89915181299855</v>
+        <v>14.89915181299858</v>
       </c>
       <c r="F15" t="n">
-        <v>2.323283750981489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.62587671097608</v>
+        <v>14.11048533239392</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.007414148727282</v>
+        <v>1.007414148727314</v>
       </c>
       <c r="T15" t="n">
-        <v>51.35799433355763</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U15" t="n">
         <v>225.8424570692415</v>
@@ -1749,10 +1749,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>63.02705656107511</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>62.936767134902</v>
       </c>
     </row>
     <row r="16">
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.08605153953491</v>
+        <v>37.08605153953494</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>24.50089245622547</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>5.869544375809994</v>
       </c>
       <c r="E16" t="n">
-        <v>3.688034004166781</v>
+        <v>3.688034004166809</v>
       </c>
       <c r="F16" t="n">
-        <v>74.03722970773021</v>
+        <v>99.2429102144215</v>
       </c>
       <c r="G16" t="n">
-        <v>23.98443253374976</v>
+        <v>23.98443253374979</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207802077</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J16" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.30153252655383</v>
+        <v>59.30153252655386</v>
       </c>
       <c r="T16" t="n">
-        <v>79.81338309784178</v>
+        <v>79.81338309784182</v>
       </c>
       <c r="U16" t="n">
         <v>143.5043397223263</v>
@@ -1828,10 +1828,10 @@
         <v>143.7770696941886</v>
       </c>
       <c r="X16" t="n">
-        <v>82.96372674663476</v>
+        <v>82.96372674663479</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.8387247096924</v>
+        <v>75.83872470969243</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>161.1459090108606</v>
       </c>
       <c r="C17" t="n">
-        <v>16.82622655456312</v>
+        <v>101.5663736079413</v>
       </c>
       <c r="D17" t="n">
         <v>133.095108968063</v>
@@ -1853,13 +1853,13 @@
         <v>160.3424374196418</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890915</v>
+        <v>185.2881130890914</v>
       </c>
       <c r="G17" t="n">
-        <v>190.9044728708951</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>89.10555695396859</v>
+        <v>89.10555695396857</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588692</v>
+        <v>29.53289369588689</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>106.1643258175149</v>
       </c>
       <c r="W17" t="n">
         <v>127.653036064793</v>
       </c>
       <c r="X17" t="n">
-        <v>148.1431680258491</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y17" t="n">
         <v>164.6500060034336</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>89.3862807510359</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8424570692415</v>
+        <v>4.254524416621498</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>133.8427549887586</v>
       </c>
       <c r="W18" t="n">
-        <v>30.10705050829964</v>
+        <v>30.10705050829961</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,13 +2017,13 @@
         <v>166.7303611761521</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.60408146944821</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9713790876242072</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U19" t="n">
-        <v>64.66233571210874</v>
+        <v>64.66233571210871</v>
       </c>
       <c r="V19" t="n">
-        <v>30.54971067120803</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>64.93506568397103</v>
+        <v>64.935065683971</v>
       </c>
       <c r="X19" t="n">
-        <v>4.121722736417183</v>
+        <v>94.64200698268266</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>161.1459090108606</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183876</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>133.095108968063</v>
@@ -2090,13 +2090,13 @@
         <v>160.3424374196418</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>185.2881130890914</v>
       </c>
       <c r="G20" t="n">
         <v>190.904472870895</v>
       </c>
       <c r="H20" t="n">
-        <v>41.37061166171914</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588692</v>
+        <v>29.30035138690235</v>
       </c>
       <c r="V20" t="n">
         <v>106.1643258175149</v>
@@ -2144,7 +2144,7 @@
         <v>127.653036064793</v>
       </c>
       <c r="X20" t="n">
-        <v>148.1431680258491</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y20" t="n">
         <v>164.6500060034336</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.62587671097608</v>
+        <v>12.99540166695922</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>208.0109851047405</v>
+        <v>4.254524416621498</v>
       </c>
       <c r="V21" t="n">
-        <v>11.2126544968053</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>134.4577212162276</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,22 +2245,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S22" t="n">
-        <v>103.0370895769323</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876242072</v>
+        <v>0.9713790876241797</v>
       </c>
       <c r="U22" t="n">
         <v>286.2502683647287</v>
       </c>
       <c r="V22" t="n">
-        <v>30.54971067120803</v>
+        <v>30.549710671208</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>4.121722736417183</v>
+        <v>4.121722736417155</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,13 +2327,13 @@
         <v>160.3424374196418</v>
       </c>
       <c r="F23" t="n">
-        <v>185.2881130890915</v>
+        <v>185.2881130890914</v>
       </c>
       <c r="G23" t="n">
-        <v>190.9044728708951</v>
+        <v>190.904472870895</v>
       </c>
       <c r="H23" t="n">
-        <v>89.1055569539686</v>
+        <v>89.10555695396857</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588692</v>
+        <v>29.53289369588689</v>
       </c>
       <c r="V23" t="n">
         <v>106.1643258175149</v>
@@ -2381,7 +2381,7 @@
         <v>127.653036064793</v>
       </c>
       <c r="X23" t="n">
-        <v>148.1431680258491</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y23" t="n">
         <v>164.6500060034336</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>134.0652262206748</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>171.6911029316508</v>
       </c>
       <c r="U24" t="n">
-        <v>4.254524416621527</v>
+        <v>4.254524416621498</v>
       </c>
       <c r="V24" t="n">
-        <v>11.2126544968053</v>
+        <v>11.21265449680527</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>80.85467728614304</v>
+        <v>0.9713790876241797</v>
       </c>
       <c r="U25" t="n">
-        <v>64.66233571210874</v>
+        <v>271.56864531686</v>
       </c>
       <c r="V25" t="n">
-        <v>30.54971067120803</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>4.121722736417183</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.891837653263</v>
+        <v>303.8918376532629</v>
       </c>
       <c r="C26" t="n">
-        <v>286.43088776079</v>
+        <v>286.4308877607899</v>
       </c>
       <c r="D26" t="n">
-        <v>275.8410376104654</v>
+        <v>275.8410376104653</v>
       </c>
       <c r="E26" t="n">
-        <v>303.0883660620442</v>
+        <v>303.0883660620441</v>
       </c>
       <c r="F26" t="n">
-        <v>328.0340417314939</v>
+        <v>328.0340417314938</v>
       </c>
       <c r="G26" t="n">
         <v>333.6504015132974</v>
       </c>
       <c r="H26" t="n">
-        <v>231.851485596371</v>
+        <v>231.8514855963709</v>
       </c>
       <c r="I26" t="n">
-        <v>23.28856145325722</v>
+        <v>23.28856145325716</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.1376253169864</v>
+        <v>66.13762531698632</v>
       </c>
       <c r="T26" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U26" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V26" t="n">
         <v>248.9102544599173</v>
@@ -2618,7 +2618,7 @@
         <v>270.3989647071954</v>
       </c>
       <c r="X26" t="n">
-        <v>290.8890966682515</v>
+        <v>290.8890966682514</v>
       </c>
       <c r="Y26" t="n">
         <v>307.395934645836</v>
@@ -2652,7 +2652,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I27" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S27" t="n">
         <v>143.7533427911297</v>
@@ -2713,25 +2713,25 @@
         <v>100.9899761717197</v>
       </c>
       <c r="C28" t="n">
-        <v>88.40481708841027</v>
+        <v>88.4048170884102</v>
       </c>
       <c r="D28" t="n">
-        <v>69.77346900799479</v>
+        <v>69.77346900799472</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59195863635161</v>
+        <v>67.59195863635154</v>
       </c>
       <c r="F28" t="n">
-        <v>66.57904401271368</v>
+        <v>66.57904401271361</v>
       </c>
       <c r="G28" t="n">
-        <v>87.88835716593459</v>
+        <v>87.88835716593452</v>
       </c>
       <c r="H28" t="n">
-        <v>72.1771268399869</v>
+        <v>72.17712683998684</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549294</v>
+        <v>38.69824412549288</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432943</v>
+        <v>41.76940982432937</v>
       </c>
       <c r="S28" t="n">
         <v>123.2054571587386</v>
       </c>
       <c r="T28" t="n">
-        <v>143.7173077300266</v>
+        <v>143.7173077300265</v>
       </c>
       <c r="U28" t="n">
         <v>207.4082643545111</v>
@@ -2776,7 +2776,7 @@
         <v>207.6809943263734</v>
       </c>
       <c r="X28" t="n">
-        <v>146.8676513788196</v>
+        <v>146.8676513788195</v>
       </c>
       <c r="Y28" t="n">
         <v>139.7426493418772</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.891837653263</v>
+        <v>303.8918376532629</v>
       </c>
       <c r="C29" t="n">
-        <v>286.43088776079</v>
+        <v>286.4308877607899</v>
       </c>
       <c r="D29" t="n">
-        <v>275.8410376104654</v>
+        <v>275.8410376104653</v>
       </c>
       <c r="E29" t="n">
-        <v>303.0883660620442</v>
+        <v>303.0883660620441</v>
       </c>
       <c r="F29" t="n">
-        <v>328.0340417314939</v>
+        <v>328.0340417314938</v>
       </c>
       <c r="G29" t="n">
         <v>333.6504015132974</v>
       </c>
       <c r="H29" t="n">
-        <v>231.851485596371</v>
+        <v>231.8514855963709</v>
       </c>
       <c r="I29" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325719</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.13762531698637</v>
+        <v>66.13762531698634</v>
       </c>
       <c r="T29" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U29" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V29" t="n">
         <v>248.9102544599173</v>
@@ -2855,7 +2855,7 @@
         <v>270.3989647071954</v>
       </c>
       <c r="X29" t="n">
-        <v>290.8890966682515</v>
+        <v>290.8890966682514</v>
       </c>
       <c r="Y29" t="n">
         <v>307.395934645836</v>
@@ -2886,10 +2886,10 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H30" t="n">
-        <v>97.71325251404465</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I30" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097611</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515202</v>
       </c>
       <c r="S30" t="n">
         <v>143.7533427911297</v>
@@ -2950,25 +2950,25 @@
         <v>100.9899761717197</v>
       </c>
       <c r="C31" t="n">
-        <v>88.40481708841025</v>
+        <v>88.4048170884102</v>
       </c>
       <c r="D31" t="n">
-        <v>69.77346900799478</v>
+        <v>69.77346900799472</v>
       </c>
       <c r="E31" t="n">
-        <v>67.59195863635159</v>
+        <v>67.59195863635154</v>
       </c>
       <c r="F31" t="n">
-        <v>66.57904401271367</v>
+        <v>66.57904401271361</v>
       </c>
       <c r="G31" t="n">
-        <v>87.88835716593456</v>
+        <v>87.88835716593451</v>
       </c>
       <c r="H31" t="n">
-        <v>72.17712683998688</v>
+        <v>72.17712683998684</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549293</v>
+        <v>38.69824412549289</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76940982432941</v>
+        <v>41.76940982432939</v>
       </c>
       <c r="S31" t="n">
         <v>123.2054571587386</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7173077300266</v>
+        <v>143.7173077300265</v>
       </c>
       <c r="U31" t="n">
         <v>207.4082643545111</v>
@@ -3013,7 +3013,7 @@
         <v>207.6809943263734</v>
       </c>
       <c r="X31" t="n">
-        <v>146.8676513788196</v>
+        <v>146.8676513788195</v>
       </c>
       <c r="Y31" t="n">
         <v>139.7426493418772</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.13762531698633</v>
+        <v>66.13762531698632</v>
       </c>
       <c r="T32" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U32" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V32" t="n">
         <v>248.9102544599173</v>
@@ -3126,7 +3126,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I33" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S33" t="n">
         <v>143.7533427911297</v>
@@ -3187,19 +3187,19 @@
         <v>100.9899761717197</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841021</v>
+        <v>88.4048170884102</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799473</v>
+        <v>69.77346900799472</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635155</v>
+        <v>67.59195863635154</v>
       </c>
       <c r="F34" t="n">
-        <v>66.57904401271362</v>
+        <v>66.57904401271361</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593454</v>
+        <v>87.88835716593452</v>
       </c>
       <c r="H34" t="n">
         <v>72.17712683998684</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468933</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V35" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W35" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X35" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="36">
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>111.6901633944394</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>128.6891813647163</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3363,7 +3363,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I36" t="n">
-        <v>37.62587671097608</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>13.93416958983469</v>
+        <v>13.93416958983466</v>
       </c>
       <c r="U36" t="n">
         <v>225.8424570692415</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>21.87770778283089</v>
+        <v>60.84541691740821</v>
       </c>
       <c r="T37" t="n">
-        <v>42.38955835411884</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U37" t="n">
-        <v>106.0805149786034</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V37" t="n">
-        <v>135.7452332606646</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="38">
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468933</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X38" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y38" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3591,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>91.67074124855655</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>143.7533427911297</v>
+        <v>71.7834169014389</v>
       </c>
       <c r="T39" t="n">
-        <v>13.93416958983469</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U39" t="n">
         <v>225.8424570692415</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.233474627595697</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.0474611689562</v>
+        <v>88.98312482969108</v>
       </c>
       <c r="T40" t="n">
-        <v>42.38955835411884</v>
+        <v>222.5593117402442</v>
       </c>
       <c r="U40" t="n">
-        <v>199.0084808374859</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96788993770267</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X40" t="n">
-        <v>45.53990200291182</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="41">
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468935</v>
+        <v>30.62386788468933</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238156</v>
+        <v>70.95107296238153</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X41" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y41" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>18.94432354483927</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>62.05333373307565</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>194.10392297596</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7303611761521</v>
+        <v>78.18461216690267</v>
       </c>
       <c r="H43" t="n">
-        <v>21.89187060895222</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.0474611689562</v>
+        <v>21.87770778283086</v>
       </c>
       <c r="T43" t="n">
-        <v>222.5593117402442</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U43" t="n">
-        <v>106.0805149786034</v>
+        <v>106.0805149786033</v>
       </c>
       <c r="V43" t="n">
-        <v>71.96788993770267</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W43" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X43" t="n">
-        <v>45.53990200291182</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>226.7062923555861</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3226521373897</v>
+        <v>232.3226521373896</v>
       </c>
       <c r="H44" t="n">
         <v>130.5237362204632</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468936</v>
+        <v>30.62386788468933</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238155</v>
+        <v>70.95107296238152</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840096</v>
+        <v>147.5825050840095</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312877</v>
+        <v>169.0712153312876</v>
       </c>
       <c r="X44" t="n">
         <v>189.5613472923437</v>
       </c>
       <c r="Y44" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699282</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>113.5183966446564</v>
+        <v>13.93416958983466</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8424570692415</v>
+        <v>196.886557978557</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4144,19 +4144,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>136.372054756863</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.233474627595712</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>21.87770778283089</v>
+        <v>139.5748802348506</v>
       </c>
       <c r="T46" t="n">
-        <v>42.38955835411884</v>
+        <v>42.38955835411881</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0805149786034</v>
+        <v>106.0805149786033</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96788993770267</v>
+        <v>71.96788993770264</v>
       </c>
       <c r="W46" t="n">
-        <v>106.3532449504657</v>
+        <v>106.3532449504656</v>
       </c>
       <c r="X46" t="n">
-        <v>45.53990200291182</v>
+        <v>45.53990200291179</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>38.41489996596943</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>732.2522526156096</v>
+        <v>703.6638171561356</v>
       </c>
       <c r="C11" t="n">
-        <v>507.4775423846952</v>
+        <v>685.1909568957419</v>
       </c>
       <c r="D11" t="n">
-        <v>293.3996504874421</v>
+        <v>471.1130649984888</v>
       </c>
       <c r="E11" t="n">
-        <v>293.3996504874421</v>
+        <v>471.1130649984888</v>
       </c>
       <c r="F11" t="n">
-        <v>198.641876229688</v>
+        <v>471.1130649984888</v>
       </c>
       <c r="G11" t="n">
-        <v>198.641876229688</v>
+        <v>198.6418762296881</v>
       </c>
       <c r="H11" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="I11" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="J11" t="n">
-        <v>85.900610499366</v>
+        <v>85.90061049936639</v>
       </c>
       <c r="K11" t="n">
-        <v>221.921578363081</v>
+        <v>221.9215783630816</v>
       </c>
       <c r="L11" t="n">
-        <v>427.5693786526953</v>
+        <v>427.5693786526959</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080099</v>
+        <v>688.0616180080104</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3827025111781</v>
+        <v>957.3827025111785</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.359704313246</v>
+        <v>1198.359704313247</v>
       </c>
       <c r="P11" t="n">
-        <v>1369.526999292379</v>
+        <v>1369.52699929238</v>
       </c>
       <c r="Q11" t="n">
         <v>1449.893762788131</v>
@@ -5066,25 +5066,25 @@
         <v>1449.893762788131</v>
       </c>
       <c r="S11" t="n">
-        <v>1449.893762788131</v>
+        <v>1447.63749947015</v>
       </c>
       <c r="T11" t="n">
-        <v>1449.893762788131</v>
+        <v>1378.902456411148</v>
       </c>
       <c r="U11" t="n">
-        <v>1449.893762788131</v>
+        <v>1378.902456411148</v>
       </c>
       <c r="V11" t="n">
-        <v>1449.893762788131</v>
+        <v>1192.027375777074</v>
       </c>
       <c r="W11" t="n">
-        <v>1449.893762788131</v>
+        <v>1192.027375777074</v>
       </c>
       <c r="X11" t="n">
-        <v>1220.615811236548</v>
+        <v>1192.027375777074</v>
       </c>
       <c r="Y11" t="n">
-        <v>974.664285970234</v>
+        <v>946.07585051076</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>225.5939070482193</v>
+        <v>794.8635183130961</v>
       </c>
       <c r="C12" t="n">
-        <v>51.14087776709232</v>
+        <v>620.4104890319691</v>
       </c>
       <c r="D12" t="n">
-        <v>46.39427481533842</v>
+        <v>471.4760793707177</v>
       </c>
       <c r="E12" t="n">
-        <v>31.34462651938028</v>
+        <v>312.2386243652622</v>
       </c>
       <c r="F12" t="n">
-        <v>28.99787525576262</v>
+        <v>165.7040663921472</v>
       </c>
       <c r="G12" t="n">
-        <v>28.99787525576262</v>
+        <v>165.7040663921472</v>
       </c>
       <c r="H12" t="n">
-        <v>28.99787525576262</v>
+        <v>67.00381132745565</v>
       </c>
       <c r="I12" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="J12" t="n">
-        <v>44.07090758709819</v>
+        <v>44.07090758709818</v>
       </c>
       <c r="K12" t="n">
-        <v>147.9879453635423</v>
+        <v>147.9879453635422</v>
       </c>
       <c r="L12" t="n">
-        <v>334.0397679681048</v>
+        <v>334.0397679681047</v>
       </c>
       <c r="M12" t="n">
-        <v>570.5103376223549</v>
+        <v>570.5103376223547</v>
       </c>
       <c r="N12" t="n">
-        <v>827.6482245309597</v>
+        <v>827.6482245309594</v>
       </c>
       <c r="O12" t="n">
         <v>1040.659359889799</v>
@@ -5142,28 +5142,28 @@
         <v>1449.893762788131</v>
       </c>
       <c r="R12" t="n">
-        <v>1443.026082909833</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S12" t="n">
-        <v>1442.008492860613</v>
+        <v>1448.876172738912</v>
       </c>
       <c r="T12" t="n">
-        <v>1245.943924198027</v>
+        <v>1252.811604076326</v>
       </c>
       <c r="U12" t="n">
-        <v>1162.00803689819</v>
+        <v>1168.875716776489</v>
       </c>
       <c r="V12" t="n">
-        <v>926.855928666447</v>
+        <v>1077.911415254243</v>
       </c>
       <c r="W12" t="n">
-        <v>672.6185719382454</v>
+        <v>967.8618652355391</v>
       </c>
       <c r="X12" t="n">
-        <v>464.7670717327126</v>
+        <v>904.1981717395037</v>
       </c>
       <c r="Y12" t="n">
-        <v>257.0067729677586</v>
+        <v>840.6256796840471</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>341.5910604712556</v>
+        <v>175.0451579962472</v>
       </c>
       <c r="C13" t="n">
-        <v>316.842684252846</v>
+        <v>150.2967817778376</v>
       </c>
       <c r="D13" t="n">
-        <v>310.9138515500077</v>
+        <v>144.3679490749992</v>
       </c>
       <c r="E13" t="n">
-        <v>163.0007579676146</v>
+        <v>140.6426622021035</v>
       </c>
       <c r="F13" t="n">
-        <v>160.2986171792016</v>
+        <v>137.9405214136905</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0719176501614</v>
+        <v>41.63088216020487</v>
       </c>
       <c r="H13" t="n">
-        <v>28.99787525576262</v>
+        <v>33.27411225333405</v>
       </c>
       <c r="I13" t="n">
-        <v>28.99787525576262</v>
+        <v>33.27411225333405</v>
       </c>
       <c r="J13" t="n">
-        <v>28.99787525576262</v>
+        <v>28.99787525576263</v>
       </c>
       <c r="K13" t="n">
         <v>151.9473816770444</v>
@@ -5206,10 +5206,10 @@
         <v>364.8068544657376</v>
       </c>
       <c r="M13" t="n">
-        <v>599.6264465155751</v>
+        <v>599.626446515575</v>
       </c>
       <c r="N13" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359155</v>
       </c>
       <c r="O13" t="n">
         <v>1035.037270057343</v>
@@ -5221,28 +5221,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R13" t="n">
-        <v>1080.658275338122</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="S13" t="n">
-        <v>1020.757737432512</v>
+        <v>998.3996416670017</v>
       </c>
       <c r="T13" t="n">
-        <v>940.1381585458037</v>
+        <v>773.5922560707954</v>
       </c>
       <c r="U13" t="n">
-        <v>795.1842800384034</v>
+        <v>628.6383775633951</v>
       </c>
       <c r="V13" t="n">
-        <v>684.6875985420138</v>
+        <v>518.1416960670056</v>
       </c>
       <c r="W13" t="n">
-        <v>539.4582352145505</v>
+        <v>372.9123327395423</v>
       </c>
       <c r="X13" t="n">
-        <v>455.6564910260306</v>
+        <v>289.1105885510223</v>
       </c>
       <c r="Y13" t="n">
-        <v>379.0517185919979</v>
+        <v>212.5058161169895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1092.216380561306</v>
+        <v>809.8676079934204</v>
       </c>
       <c r="C14" t="n">
-        <v>867.4416703303915</v>
+        <v>809.8676079934204</v>
       </c>
       <c r="D14" t="n">
-        <v>867.4416703303915</v>
+        <v>809.8676079934204</v>
       </c>
       <c r="E14" t="n">
-        <v>625.8412244416447</v>
+        <v>568.2671621046735</v>
       </c>
       <c r="F14" t="n">
-        <v>359.0431263615345</v>
+        <v>301.4690640245633</v>
       </c>
       <c r="G14" t="n">
-        <v>86.57193759273405</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H14" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I14" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J14" t="n">
-        <v>85.90061049936594</v>
+        <v>85.9006104993659</v>
       </c>
       <c r="K14" t="n">
-        <v>221.9215783630809</v>
+        <v>221.9215783630808</v>
       </c>
       <c r="L14" t="n">
-        <v>427.5693786526953</v>
+        <v>427.5693786526951</v>
       </c>
       <c r="M14" t="n">
-        <v>688.0616180080099</v>
+        <v>688.0616180080098</v>
       </c>
       <c r="N14" t="n">
-        <v>957.382702511178</v>
+        <v>957.3827025111779</v>
       </c>
       <c r="O14" t="n">
         <v>1198.359704313246</v>
       </c>
       <c r="P14" t="n">
-        <v>1369.52699929238</v>
+        <v>1369.526999292379</v>
       </c>
       <c r="Q14" t="n">
         <v>1449.893762788131</v>
@@ -5303,25 +5303,25 @@
         <v>1449.893762788131</v>
       </c>
       <c r="S14" t="n">
-        <v>1447.63749947015</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="T14" t="n">
-        <v>1447.63749947015</v>
+        <v>1381.158719729128</v>
       </c>
       <c r="U14" t="n">
-        <v>1338.16790582762</v>
+        <v>1381.158719729128</v>
       </c>
       <c r="V14" t="n">
-        <v>1338.16790582762</v>
+        <v>1381.158719729128</v>
       </c>
       <c r="W14" t="n">
-        <v>1338.16790582762</v>
+        <v>1381.158719729128</v>
       </c>
       <c r="X14" t="n">
-        <v>1338.16790582762</v>
+        <v>1298.231166614359</v>
       </c>
       <c r="Y14" t="n">
-        <v>1092.216380561306</v>
+        <v>1052.279641348045</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>119.412036410415</v>
+        <v>239.846922535486</v>
       </c>
       <c r="C15" t="n">
-        <v>89.14681383878535</v>
+        <v>209.5816999638563</v>
       </c>
       <c r="D15" t="n">
-        <v>84.40021088703145</v>
+        <v>204.8350970121024</v>
       </c>
       <c r="E15" t="n">
-        <v>69.35056259107331</v>
+        <v>189.7854487161442</v>
       </c>
       <c r="F15" t="n">
-        <v>67.00381132745565</v>
+        <v>43.2508907430292</v>
       </c>
       <c r="G15" t="n">
-        <v>67.00381132745565</v>
+        <v>43.2508907430292</v>
       </c>
       <c r="H15" t="n">
-        <v>67.00381132745565</v>
+        <v>43.2508907430292</v>
       </c>
       <c r="I15" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J15" t="n">
-        <v>44.0709075870982</v>
+        <v>168.9010325741029</v>
       </c>
       <c r="K15" t="n">
-        <v>147.9879453635423</v>
+        <v>272.8180703505469</v>
       </c>
       <c r="L15" t="n">
-        <v>334.0397679681048</v>
+        <v>458.8698929551094</v>
       </c>
       <c r="M15" t="n">
-        <v>570.5103376223549</v>
+        <v>695.3404626093594</v>
       </c>
       <c r="N15" t="n">
-        <v>827.6482245309597</v>
+        <v>952.4783495179641</v>
       </c>
       <c r="O15" t="n">
-        <v>1040.659359889799</v>
+        <v>1165.489484876804</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.454225395175</v>
+        <v>1317.116634152414</v>
       </c>
       <c r="Q15" t="n">
         <v>1449.893762788131</v>
@@ -5382,25 +5382,25 @@
         <v>1449.893762788131</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.876172738912</v>
+        <v>1448.876172738911</v>
       </c>
       <c r="T15" t="n">
-        <v>1396.999410785823</v>
+        <v>1252.811604076325</v>
       </c>
       <c r="U15" t="n">
-        <v>1168.875716776488</v>
+        <v>1024.68791006699</v>
       </c>
       <c r="V15" t="n">
-        <v>933.7236085447457</v>
+        <v>789.5358018352476</v>
       </c>
       <c r="W15" t="n">
-        <v>679.4862518165442</v>
+        <v>535.2984451070461</v>
       </c>
       <c r="X15" t="n">
-        <v>471.6347516110113</v>
+        <v>471.6347516110106</v>
       </c>
       <c r="Y15" t="n">
-        <v>263.8744528460574</v>
+        <v>408.062259555554</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.4207714152421</v>
+        <v>463.4207714152418</v>
       </c>
       <c r="C16" t="n">
-        <v>294.4845884873353</v>
+        <v>438.6723951968322</v>
       </c>
       <c r="D16" t="n">
-        <v>144.3679490749995</v>
+        <v>432.7435624939938</v>
       </c>
       <c r="E16" t="n">
-        <v>140.6426622021038</v>
+        <v>429.018275621098</v>
       </c>
       <c r="F16" t="n">
-        <v>65.857581689245</v>
+        <v>328.772911768147</v>
       </c>
       <c r="G16" t="n">
-        <v>41.63088216020483</v>
+        <v>304.5462122391068</v>
       </c>
       <c r="H16" t="n">
-        <v>33.27411225333404</v>
+        <v>152.0016356227386</v>
       </c>
       <c r="I16" t="n">
         <v>33.27411225333404</v>
       </c>
       <c r="J16" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K16" t="n">
         <v>151.9473816770444</v>
@@ -5443,10 +5443,10 @@
         <v>364.8068544657376</v>
       </c>
       <c r="M16" t="n">
-        <v>599.6264465155751</v>
+        <v>599.626446515575</v>
       </c>
       <c r="N16" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359155</v>
       </c>
       <c r="O16" t="n">
         <v>1035.037270057343</v>
@@ -5467,19 +5467,19 @@
         <v>1061.96786948979</v>
       </c>
       <c r="U16" t="n">
-        <v>917.0139909823899</v>
+        <v>917.0139909823897</v>
       </c>
       <c r="V16" t="n">
-        <v>806.5173094860004</v>
+        <v>806.5173094860002</v>
       </c>
       <c r="W16" t="n">
-        <v>661.2879461585371</v>
+        <v>661.2879461585369</v>
       </c>
       <c r="X16" t="n">
-        <v>577.4862019700172</v>
+        <v>577.486201970017</v>
       </c>
       <c r="Y16" t="n">
-        <v>500.8814295359845</v>
+        <v>500.8814295359842</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.3937498580081</v>
+        <v>705.1570571130417</v>
       </c>
       <c r="C17" t="n">
-        <v>795.3975614190554</v>
+        <v>602.5647605393634</v>
       </c>
       <c r="D17" t="n">
-        <v>660.9580574109109</v>
+        <v>468.125256531219</v>
       </c>
       <c r="E17" t="n">
-        <v>498.9959994112727</v>
+        <v>306.1631985315807</v>
       </c>
       <c r="F17" t="n">
-        <v>311.8362892202712</v>
+        <v>119.0034883405794</v>
       </c>
       <c r="G17" t="n">
         <v>119.0034883405794</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99787525576265</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I17" t="n">
-        <v>28.99787525576265</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90061049936685</v>
+        <v>85.90061049936554</v>
       </c>
       <c r="K17" t="n">
-        <v>221.9215783630821</v>
+        <v>221.9215783630805</v>
       </c>
       <c r="L17" t="n">
-        <v>427.5693786526963</v>
+        <v>427.5693786526948</v>
       </c>
       <c r="M17" t="n">
-        <v>688.0616180080109</v>
+        <v>688.0616180080094</v>
       </c>
       <c r="N17" t="n">
-        <v>957.3827025111791</v>
+        <v>957.3827025111775</v>
       </c>
       <c r="O17" t="n">
-        <v>1198.359704313247</v>
+        <v>1198.359704313246</v>
       </c>
       <c r="P17" t="n">
-        <v>1369.526999292381</v>
+        <v>1369.526999292379</v>
       </c>
       <c r="Q17" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="R17" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S17" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="T17" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="U17" t="n">
-        <v>1420.062557034712</v>
+        <v>1420.062557034709</v>
       </c>
       <c r="V17" t="n">
-        <v>1420.062557034712</v>
+        <v>1312.825864289745</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.120096363203</v>
+        <v>1183.883403618237</v>
       </c>
       <c r="X17" t="n">
-        <v>1141.48053270073</v>
+        <v>1034.243839955763</v>
       </c>
       <c r="Y17" t="n">
-        <v>975.1673953235238</v>
+        <v>867.9307025785574</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>748.4464996525053</v>
+        <v>696.1632632484044</v>
       </c>
       <c r="C18" t="n">
-        <v>573.9934703713783</v>
+        <v>521.7102339672774</v>
       </c>
       <c r="D18" t="n">
-        <v>425.059060710127</v>
+        <v>372.7758243060262</v>
       </c>
       <c r="E18" t="n">
-        <v>265.8216057046715</v>
+        <v>213.5383693005707</v>
       </c>
       <c r="F18" t="n">
-        <v>119.2870477315565</v>
+        <v>67.00381132745564</v>
       </c>
       <c r="G18" t="n">
-        <v>119.2870477315565</v>
+        <v>67.00381132745564</v>
       </c>
       <c r="H18" t="n">
-        <v>28.99787525576265</v>
+        <v>67.00381132745564</v>
       </c>
       <c r="I18" t="n">
-        <v>28.99787525576265</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J18" t="n">
-        <v>44.07090758709822</v>
+        <v>44.07090758709816</v>
       </c>
       <c r="K18" t="n">
-        <v>147.9879453635423</v>
+        <v>147.9879453635422</v>
       </c>
       <c r="L18" t="n">
-        <v>334.0397679681048</v>
+        <v>334.0397679681047</v>
       </c>
       <c r="M18" t="n">
-        <v>570.5103376223549</v>
+        <v>570.5103376223547</v>
       </c>
       <c r="N18" t="n">
-        <v>827.6482245309597</v>
+        <v>827.6482245309594</v>
       </c>
       <c r="O18" t="n">
         <v>1040.659359889799</v>
       </c>
       <c r="P18" t="n">
-        <v>1398.454225395176</v>
+        <v>1192.286509165409</v>
       </c>
       <c r="Q18" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="R18" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="S18" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="T18" t="n">
-        <v>1449.893762788132</v>
+        <v>1449.893762788131</v>
       </c>
       <c r="U18" t="n">
-        <v>1221.770068778797</v>
+        <v>1445.596263377402</v>
       </c>
       <c r="V18" t="n">
-        <v>986.6179605470547</v>
+        <v>1310.401561368555</v>
       </c>
       <c r="W18" t="n">
-        <v>956.2067984174591</v>
+        <v>1279.990399238959</v>
       </c>
       <c r="X18" t="n">
-        <v>956.2067984174591</v>
+        <v>1072.138899033426</v>
       </c>
       <c r="Y18" t="n">
-        <v>748.4464996525053</v>
+        <v>864.3786002684724</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>765.6910683903191</v>
+        <v>496.4916595721751</v>
       </c>
       <c r="C19" t="n">
-        <v>765.6910683903191</v>
+        <v>496.4916595721751</v>
       </c>
       <c r="D19" t="n">
-        <v>615.5744289779833</v>
+        <v>496.4916595721751</v>
       </c>
       <c r="E19" t="n">
-        <v>615.5744289779833</v>
+        <v>348.578565989782</v>
       </c>
       <c r="F19" t="n">
-        <v>468.6844814800729</v>
+        <v>201.6886184918716</v>
       </c>
       <c r="G19" t="n">
-        <v>300.2699752415353</v>
+        <v>33.27411225333404</v>
       </c>
       <c r="H19" t="n">
-        <v>147.7253986251672</v>
+        <v>33.27411225333404</v>
       </c>
       <c r="I19" t="n">
-        <v>28.99787525576265</v>
+        <v>33.27411225333404</v>
       </c>
       <c r="J19" t="n">
-        <v>28.99787525576265</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K19" t="n">
-        <v>151.9473816770445</v>
+        <v>151.9473816770444</v>
       </c>
       <c r="L19" t="n">
         <v>364.8068544657376</v>
       </c>
       <c r="M19" t="n">
-        <v>599.6264465155751</v>
+        <v>599.626446515575</v>
       </c>
       <c r="N19" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359155</v>
       </c>
       <c r="O19" t="n">
         <v>1035.037270057343</v>
@@ -5698,25 +5698,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S19" t="n">
-        <v>1153.392954494788</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="T19" t="n">
-        <v>1152.411763497188</v>
+        <v>977.6806006859027</v>
       </c>
       <c r="U19" t="n">
-        <v>1087.096272878896</v>
+        <v>912.3651100676111</v>
       </c>
       <c r="V19" t="n">
-        <v>1056.237979271615</v>
+        <v>657.6806218617243</v>
       </c>
       <c r="W19" t="n">
-        <v>990.6470038332604</v>
+        <v>592.0896464233697</v>
       </c>
       <c r="X19" t="n">
-        <v>986.4836475338492</v>
+        <v>496.4916595721751</v>
       </c>
       <c r="Y19" t="n">
-        <v>765.6910683903191</v>
+        <v>496.4916595721751</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>705.1570571130425</v>
+        <v>705.3919483342381</v>
       </c>
       <c r="C20" t="n">
-        <v>560.0207347712368</v>
+        <v>705.3919483342381</v>
       </c>
       <c r="D20" t="n">
-        <v>425.5812307630923</v>
+        <v>570.9524443260937</v>
       </c>
       <c r="E20" t="n">
-        <v>263.6191727634537</v>
+        <v>408.9903863264558</v>
       </c>
       <c r="F20" t="n">
-        <v>263.6191727634537</v>
+        <v>221.8306761354543</v>
       </c>
       <c r="G20" t="n">
-        <v>70.78637188376176</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90061049936611</v>
+        <v>85.9006104993659</v>
       </c>
       <c r="K20" t="n">
-        <v>221.9215783630811</v>
+        <v>221.9215783630808</v>
       </c>
       <c r="L20" t="n">
-        <v>427.5693786526955</v>
+        <v>427.5693786526951</v>
       </c>
       <c r="M20" t="n">
-        <v>688.0616180080101</v>
+        <v>688.0616180080098</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3827025111782</v>
+        <v>957.3827025111779</v>
       </c>
       <c r="O20" t="n">
-        <v>1198.359704313247</v>
+        <v>1198.359704313246</v>
       </c>
       <c r="P20" t="n">
-        <v>1369.52699929238</v>
+        <v>1369.526999292379</v>
       </c>
       <c r="Q20" t="n">
         <v>1449.893762788131</v>
@@ -5783,19 +5783,19 @@
         <v>1449.893762788131</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.06255703471</v>
+        <v>1420.297448255906</v>
       </c>
       <c r="V20" t="n">
-        <v>1312.825864289746</v>
+        <v>1313.060755510941</v>
       </c>
       <c r="W20" t="n">
-        <v>1183.883403618238</v>
+        <v>1184.118294839433</v>
       </c>
       <c r="X20" t="n">
-        <v>1034.243839955764</v>
+        <v>1034.47873117696</v>
       </c>
       <c r="Y20" t="n">
-        <v>867.9307025785582</v>
+        <v>868.1655937997539</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>390.3912502698339</v>
+        <v>365.5119825486047</v>
       </c>
       <c r="C21" t="n">
-        <v>215.9382209887069</v>
+        <v>191.0589532674777</v>
       </c>
       <c r="D21" t="n">
-        <v>67.00381132745565</v>
+        <v>42.12454360622647</v>
       </c>
       <c r="E21" t="n">
-        <v>67.00381132745565</v>
+        <v>42.12454360622647</v>
       </c>
       <c r="F21" t="n">
-        <v>67.00381132745565</v>
+        <v>42.12454360622647</v>
       </c>
       <c r="G21" t="n">
-        <v>67.00381132745565</v>
+        <v>42.12454360622647</v>
       </c>
       <c r="H21" t="n">
-        <v>67.00381132745565</v>
+        <v>42.12454360622647</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="J21" t="n">
-        <v>168.9010325741029</v>
+        <v>44.07090758709816</v>
       </c>
       <c r="K21" t="n">
-        <v>354.155661593308</v>
+        <v>147.9879453635422</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2074841978705</v>
+        <v>417.8293475620575</v>
       </c>
       <c r="M21" t="n">
-        <v>776.6780538521206</v>
+        <v>776.6780538521198</v>
       </c>
       <c r="N21" t="n">
         <v>1033.815940760725</v>
       </c>
       <c r="O21" t="n">
-        <v>1246.827076119565</v>
+        <v>1246.827076119564</v>
       </c>
       <c r="P21" t="n">
-        <v>1398.454225395175</v>
+        <v>1398.454225395174</v>
       </c>
       <c r="Q21" t="n">
         <v>1449.893762788131</v>
       </c>
       <c r="R21" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909832</v>
       </c>
       <c r="S21" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909832</v>
       </c>
       <c r="T21" t="n">
-        <v>1449.893762788131</v>
+        <v>1443.026082909832</v>
       </c>
       <c r="U21" t="n">
-        <v>1239.781656621727</v>
+        <v>1438.728583499104</v>
       </c>
       <c r="V21" t="n">
-        <v>1228.45574298859</v>
+        <v>1203.576475267361</v>
       </c>
       <c r="W21" t="n">
-        <v>974.2183862603886</v>
+        <v>949.3391185391595</v>
       </c>
       <c r="X21" t="n">
-        <v>766.3668860548557</v>
+        <v>741.4876183336266</v>
       </c>
       <c r="Y21" t="n">
-        <v>558.6065872899019</v>
+        <v>533.7273195686728</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>483.8484218644311</v>
+        <v>330.2806991635802</v>
       </c>
       <c r="C22" t="n">
-        <v>483.8484218644311</v>
+        <v>330.2806991635802</v>
       </c>
       <c r="D22" t="n">
-        <v>333.7317824520953</v>
+        <v>180.1640597512444</v>
       </c>
       <c r="E22" t="n">
-        <v>185.8186888697022</v>
+        <v>180.1640597512444</v>
       </c>
       <c r="F22" t="n">
-        <v>185.8186888697022</v>
+        <v>33.27411225333404</v>
       </c>
       <c r="G22" t="n">
-        <v>185.8186888697022</v>
+        <v>33.27411225333404</v>
       </c>
       <c r="H22" t="n">
         <v>33.27411225333404</v>
@@ -5908,7 +5908,7 @@
         <v>33.27411225333404</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576263</v>
+        <v>28.99787525576261</v>
       </c>
       <c r="K22" t="n">
         <v>151.9473816770444</v>
@@ -5917,10 +5917,10 @@
         <v>364.8068544657376</v>
       </c>
       <c r="M22" t="n">
-        <v>599.6264465155751</v>
+        <v>599.626446515575</v>
       </c>
       <c r="N22" t="n">
-        <v>834.2971699359156</v>
+        <v>834.2971699359155</v>
       </c>
       <c r="O22" t="n">
         <v>1035.037270057343</v>
@@ -5932,28 +5932,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.487986282109</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="S22" t="n">
-        <v>1098.410118022582</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="T22" t="n">
-        <v>1097.428927024981</v>
+        <v>1079.677084340522</v>
       </c>
       <c r="U22" t="n">
-        <v>808.2872418080839</v>
+        <v>790.5353991236243</v>
       </c>
       <c r="V22" t="n">
-        <v>777.428948200803</v>
+        <v>759.6771055163435</v>
       </c>
       <c r="W22" t="n">
-        <v>488.0117781638424</v>
+        <v>470.2599354793829</v>
       </c>
       <c r="X22" t="n">
-        <v>483.8484218644311</v>
+        <v>466.0965791799717</v>
       </c>
       <c r="Y22" t="n">
-        <v>483.8484218644311</v>
+        <v>466.0965791799717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.3374924679591</v>
+        <v>945.3374924679598</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261536</v>
+        <v>800.2011701261542</v>
       </c>
       <c r="D23" t="n">
-        <v>665.7616661180093</v>
+        <v>665.7616661180098</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183715</v>
+        <v>503.7996081183716</v>
       </c>
       <c r="F23" t="n">
         <v>316.6398979273702</v>
@@ -5987,19 +5987,19 @@
         <v>33.80148396286097</v>
       </c>
       <c r="J23" t="n">
-        <v>90.70421920646429</v>
+        <v>90.70421920646426</v>
       </c>
       <c r="K23" t="n">
-        <v>226.7251870701793</v>
+        <v>226.7251870701792</v>
       </c>
       <c r="L23" t="n">
-        <v>432.3729873597937</v>
+        <v>432.3729873597935</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8652267151083</v>
+        <v>692.8652267151081</v>
       </c>
       <c r="N23" t="n">
-        <v>962.1863112182764</v>
+        <v>962.1863112182762</v>
       </c>
       <c r="O23" t="n">
         <v>1203.163313020345</v>
@@ -6023,10 +6023,10 @@
         <v>1660.242992389627</v>
       </c>
       <c r="V23" t="n">
-        <v>1553.006299644662</v>
+        <v>1553.006299644663</v>
       </c>
       <c r="W23" t="n">
-        <v>1424.063838973154</v>
+        <v>1424.063838973155</v>
       </c>
       <c r="X23" t="n">
         <v>1274.424275310681</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>700.9668719555028</v>
+        <v>662.9609358838097</v>
       </c>
       <c r="C24" t="n">
-        <v>526.5138426743758</v>
+        <v>488.5079066026827</v>
       </c>
       <c r="D24" t="n">
-        <v>377.5794330131245</v>
+        <v>339.5734969414315</v>
       </c>
       <c r="E24" t="n">
-        <v>218.341978007669</v>
+        <v>180.336041935976</v>
       </c>
       <c r="F24" t="n">
-        <v>71.80742003455399</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="G24" t="n">
-        <v>71.80742003455399</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="H24" t="n">
-        <v>71.80742003455399</v>
+        <v>33.80148396286097</v>
       </c>
       <c r="I24" t="n">
         <v>33.80148396286097</v>
       </c>
       <c r="J24" t="n">
-        <v>173.7046412812013</v>
+        <v>48.87451629419651</v>
       </c>
       <c r="K24" t="n">
-        <v>539.4422637000982</v>
+        <v>414.6121387130933</v>
       </c>
       <c r="L24" t="n">
-        <v>725.4940863046608</v>
+        <v>600.6639613176558</v>
       </c>
       <c r="M24" t="n">
-        <v>961.9646559589108</v>
+        <v>837.1345309719057</v>
       </c>
       <c r="N24" t="n">
-        <v>1219.102542867516</v>
+        <v>1094.272417880511</v>
       </c>
       <c r="O24" t="n">
-        <v>1432.113678226355</v>
+        <v>1307.28355323935</v>
       </c>
       <c r="P24" t="n">
-        <v>1583.740827501966</v>
+        <v>1458.91070251496</v>
       </c>
       <c r="Q24" t="n">
         <v>1690.074198143049</v>
@@ -6093,25 +6093,25 @@
         <v>1690.074198143049</v>
       </c>
       <c r="S24" t="n">
-        <v>1554.654777718124</v>
+        <v>1690.074198143049</v>
       </c>
       <c r="T24" t="n">
-        <v>1554.654777718124</v>
+        <v>1516.648841646431</v>
       </c>
       <c r="U24" t="n">
-        <v>1550.357278307396</v>
+        <v>1512.351342235703</v>
       </c>
       <c r="V24" t="n">
-        <v>1539.031364674259</v>
+        <v>1501.025428602566</v>
       </c>
       <c r="W24" t="n">
-        <v>1284.794007946057</v>
+        <v>1246.788071874365</v>
       </c>
       <c r="X24" t="n">
-        <v>1076.942507740525</v>
+        <v>1038.936571668832</v>
       </c>
       <c r="Y24" t="n">
-        <v>869.1822089755708</v>
+        <v>831.1762729038778</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>350.1290837837917</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="C25" t="n">
-        <v>350.1290837837917</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="D25" t="n">
-        <v>350.1290837837917</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="E25" t="n">
-        <v>202.2159902013985</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="F25" t="n">
-        <v>202.2159902013985</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="G25" t="n">
-        <v>33.80148396286097</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="H25" t="n">
-        <v>33.80148396286097</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="I25" t="n">
-        <v>33.80148396286097</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="J25" t="n">
         <v>33.80148396286097</v>
@@ -6169,28 +6169,28 @@
         <v>1207.291594989207</v>
       </c>
       <c r="R25" t="n">
-        <v>1207.291594989207</v>
+        <v>1085.461884045221</v>
       </c>
       <c r="S25" t="n">
-        <v>1003.2032503741</v>
+        <v>1085.461884045221</v>
       </c>
       <c r="T25" t="n">
-        <v>921.5318591759758</v>
+        <v>1084.48069304762</v>
       </c>
       <c r="U25" t="n">
-        <v>856.2163685576842</v>
+        <v>810.1689301012972</v>
       </c>
       <c r="V25" t="n">
-        <v>825.3580749504033</v>
+        <v>555.4844418954103</v>
       </c>
       <c r="W25" t="n">
-        <v>535.9409049134426</v>
+        <v>266.0672718584497</v>
       </c>
       <c r="X25" t="n">
-        <v>531.7775486140314</v>
+        <v>38.07772096043239</v>
       </c>
       <c r="Y25" t="n">
-        <v>531.7775486140314</v>
+        <v>38.07772096043239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>999.7616771635667</v>
       </c>
       <c r="F26" t="n">
-        <v>668.4141602630676</v>
+        <v>668.414160263068</v>
       </c>
       <c r="G26" t="n">
-        <v>331.3935526738783</v>
+        <v>331.3935526738787</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956419</v>
+        <v>97.20013287956412</v>
       </c>
       <c r="I26" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J26" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957859</v>
       </c>
       <c r="K26" t="n">
-        <v>754.9096440049541</v>
+        <v>754.909644004954</v>
       </c>
       <c r="L26" t="n">
         <v>1374.042046699514</v>
       </c>
       <c r="M26" t="n">
-        <v>1634.534286054829</v>
+        <v>2079.552684212733</v>
       </c>
       <c r="N26" t="n">
-        <v>2336.828825725861</v>
+        <v>2781.847223883765</v>
       </c>
       <c r="O26" t="n">
-        <v>2954.798006978048</v>
+        <v>3399.816405135952</v>
       </c>
       <c r="P26" t="n">
-        <v>3444.546023046949</v>
+        <v>3570.983700115085</v>
       </c>
       <c r="Q26" t="n">
         <v>3683.816671591481</v>
@@ -6251,7 +6251,7 @@
         <v>3683.816671591481</v>
       </c>
       <c r="S26" t="n">
-        <v>3617.010989453112</v>
+        <v>3617.010989453111</v>
       </c>
       <c r="T26" t="n">
         <v>3483.72652757372</v>
@@ -6269,7 +6269,7 @@
         <v>2491.325377903363</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.824433816661</v>
+        <v>2180.82443381666</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>111.6822695035226</v>
       </c>
       <c r="I27" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J27" t="n">
-        <v>213.57949075017</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K27" t="n">
-        <v>579.3171131690669</v>
+        <v>579.3171131690667</v>
       </c>
       <c r="L27" t="n">
         <v>1132.500877624054</v>
       </c>
       <c r="M27" t="n">
-        <v>1368.971447278304</v>
+        <v>1429.761528752947</v>
       </c>
       <c r="N27" t="n">
-        <v>1626.109334186909</v>
+        <v>1686.899415661552</v>
       </c>
       <c r="O27" t="n">
-        <v>1899.91055102039</v>
+        <v>1899.910551020391</v>
       </c>
       <c r="P27" t="n">
         <v>2366.815841249539</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.7500878529254</v>
+        <v>569.7500878529249</v>
       </c>
       <c r="C28" t="n">
-        <v>480.4522928141271</v>
+        <v>480.4522928141267</v>
       </c>
       <c r="D28" t="n">
-        <v>409.9740412909</v>
+        <v>409.9740412908997</v>
       </c>
       <c r="E28" t="n">
-        <v>341.6993355976156</v>
+        <v>341.6993355976153</v>
       </c>
       <c r="F28" t="n">
-        <v>274.4477759888139</v>
+        <v>274.4477759888137</v>
       </c>
       <c r="G28" t="n">
-        <v>185.671657639385</v>
+        <v>185.6716576393849</v>
       </c>
       <c r="H28" t="n">
         <v>112.7654689121255</v>
       </c>
       <c r="I28" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J28" t="n">
         <v>147.5387775206253</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120224</v>
+        <v>348.5418679120226</v>
       </c>
       <c r="L28" t="n">
-        <v>639.454924670831</v>
+        <v>639.4549246708311</v>
       </c>
       <c r="M28" t="n">
-        <v>952.3281006907839</v>
+        <v>952.3281006907841</v>
       </c>
       <c r="N28" t="n">
         <v>1265.05240808124</v>
       </c>
       <c r="O28" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P28" t="n">
-        <v>1770.146828491807</v>
+        <v>1770.146828491806</v>
       </c>
       <c r="Q28" t="n">
-        <v>1867.40397633778</v>
+        <v>1867.403976337779</v>
       </c>
       <c r="R28" t="n">
-        <v>1825.212653282902</v>
+        <v>1825.212653282901</v>
       </c>
       <c r="S28" t="n">
-        <v>1700.762696556903</v>
+        <v>1700.762696556902</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.593698849806</v>
+        <v>1555.593698849805</v>
       </c>
       <c r="U28" t="n">
-        <v>1346.090401522017</v>
+        <v>1346.090401522016</v>
       </c>
       <c r="V28" t="n">
-        <v>1171.044301205239</v>
+        <v>1171.044301205238</v>
       </c>
       <c r="W28" t="n">
-        <v>961.2655190573865</v>
+        <v>961.2655190573857</v>
       </c>
       <c r="X28" t="n">
-        <v>812.9143560484779</v>
+        <v>812.9143560484772</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.7601647940564</v>
+        <v>671.7601647940559</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.862981641647</v>
+        <v>1873.862981641646</v>
       </c>
       <c r="C29" t="n">
         <v>1584.538852590344</v>
@@ -6446,43 +6446,43 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E29" t="n">
-        <v>999.7616771635667</v>
+        <v>999.7616771635668</v>
       </c>
       <c r="F29" t="n">
-        <v>668.4141602630679</v>
+        <v>668.414160263068</v>
       </c>
       <c r="G29" t="n">
-        <v>331.3935526738785</v>
+        <v>331.3935526738787</v>
       </c>
       <c r="H29" t="n">
-        <v>97.20013287956418</v>
+        <v>97.20013287956415</v>
       </c>
       <c r="I29" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J29" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957859</v>
       </c>
       <c r="K29" t="n">
-        <v>754.9096440049541</v>
+        <v>754.9096440049539</v>
       </c>
       <c r="L29" t="n">
         <v>1374.042046699514</v>
       </c>
       <c r="M29" t="n">
-        <v>2079.552684212733</v>
+        <v>1634.534286054828</v>
       </c>
       <c r="N29" t="n">
-        <v>2781.847223883766</v>
+        <v>2336.828825725861</v>
       </c>
       <c r="O29" t="n">
-        <v>3399.816405135952</v>
+        <v>2954.798006978047</v>
       </c>
       <c r="P29" t="n">
-        <v>3570.983700115085</v>
+        <v>3444.546023046948</v>
       </c>
       <c r="Q29" t="n">
-        <v>3683.816671591481</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R29" t="n">
         <v>3683.816671591481</v>
@@ -6494,10 +6494,10 @@
         <v>3483.72652757372</v>
       </c>
       <c r="U29" t="n">
-        <v>3309.707515110802</v>
+        <v>3309.707515110801</v>
       </c>
       <c r="V29" t="n">
-        <v>3058.28301565634</v>
+        <v>3058.283015656339</v>
       </c>
       <c r="W29" t="n">
         <v>2785.152748275334</v>
@@ -6531,31 +6531,31 @@
         <v>347.5945013206023</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3825245682142</v>
+        <v>210.3825245682143</v>
       </c>
       <c r="H30" t="n">
-        <v>111.6822695035226</v>
+        <v>111.6822695035227</v>
       </c>
       <c r="I30" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J30" t="n">
-        <v>213.57949075017</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K30" t="n">
-        <v>579.3171131690669</v>
+        <v>579.3171131690667</v>
       </c>
       <c r="L30" t="n">
-        <v>1132.500877624054</v>
+        <v>765.3689357736291</v>
       </c>
       <c r="M30" t="n">
-        <v>1368.971447278304</v>
+        <v>1001.839505427879</v>
       </c>
       <c r="N30" t="n">
-        <v>1626.109334186909</v>
+        <v>1296.975719577589</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.91055102039</v>
+        <v>1899.910551020391</v>
       </c>
       <c r="P30" t="n">
         <v>2366.815841249539</v>
@@ -6598,25 +6598,25 @@
         <v>569.7500878529248</v>
       </c>
       <c r="C31" t="n">
-        <v>480.4522928141266</v>
+        <v>480.4522928141267</v>
       </c>
       <c r="D31" t="n">
-        <v>409.9740412908995</v>
+        <v>409.9740412908997</v>
       </c>
       <c r="E31" t="n">
-        <v>341.6993355976151</v>
+        <v>341.6993355976153</v>
       </c>
       <c r="F31" t="n">
-        <v>274.4477759888134</v>
+        <v>274.4477759888136</v>
       </c>
       <c r="G31" t="n">
-        <v>185.6716576393846</v>
+        <v>185.6716576393849</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7654689121251</v>
+        <v>112.7654689121255</v>
       </c>
       <c r="I31" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J31" t="n">
         <v>147.5387775206252</v>
@@ -6625,16 +6625,16 @@
         <v>348.5418679120224</v>
       </c>
       <c r="L31" t="n">
-        <v>639.454924670831</v>
+        <v>639.4549246708309</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907841</v>
+        <v>952.3281006907839</v>
       </c>
       <c r="N31" t="n">
         <v>1265.05240808124</v>
       </c>
       <c r="O31" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P31" t="n">
         <v>1770.146828491806</v>
@@ -6643,7 +6643,7 @@
         <v>1867.40397633778</v>
       </c>
       <c r="R31" t="n">
-        <v>1825.212653282902</v>
+        <v>1825.212653282901</v>
       </c>
       <c r="S31" t="n">
         <v>1700.762696556903</v>
@@ -6658,13 +6658,13 @@
         <v>1171.044301205238</v>
       </c>
       <c r="W31" t="n">
-        <v>961.2655190573861</v>
+        <v>961.2655190573857</v>
       </c>
       <c r="X31" t="n">
-        <v>812.9143560484775</v>
+        <v>812.9143560484772</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.7601647940559</v>
+        <v>671.7601647940558</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1873.862981641646</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.538852590343</v>
+        <v>1584.538852590344</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.911541872701</v>
+        <v>1305.911541872702</v>
       </c>
       <c r="E32" t="n">
-        <v>999.7616771635654</v>
+        <v>999.7616771635663</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630666</v>
+        <v>668.4141602630675</v>
       </c>
       <c r="G32" t="n">
-        <v>331.3935526738773</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956414</v>
+        <v>97.20013287956412</v>
       </c>
       <c r="I32" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J32" t="n">
-        <v>297.984717695786</v>
+        <v>297.9847176957859</v>
       </c>
       <c r="K32" t="n">
-        <v>754.9096440049541</v>
+        <v>442.396385858653</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.042046699514</v>
+        <v>1061.528788553213</v>
       </c>
       <c r="M32" t="n">
-        <v>2079.552684212733</v>
+        <v>1767.039426066432</v>
       </c>
       <c r="N32" t="n">
-        <v>2781.847223883766</v>
+        <v>2469.333965737464</v>
       </c>
       <c r="O32" t="n">
-        <v>3399.816405135952</v>
+        <v>3087.303146989651</v>
       </c>
       <c r="P32" t="n">
-        <v>3570.983700115085</v>
+        <v>3577.051163058552</v>
       </c>
       <c r="Q32" t="n">
-        <v>3683.816671591481</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R32" t="n">
         <v>3683.816671591481</v>
@@ -6728,13 +6728,13 @@
         <v>3617.01098945311</v>
       </c>
       <c r="T32" t="n">
-        <v>3483.726527573719</v>
+        <v>3483.72652757372</v>
       </c>
       <c r="U32" t="n">
-        <v>3309.7075151108</v>
+        <v>3309.707515110801</v>
       </c>
       <c r="V32" t="n">
-        <v>3058.283015656338</v>
+        <v>3058.283015656339</v>
       </c>
       <c r="W32" t="n">
         <v>2785.152748275333</v>
@@ -6774,25 +6774,25 @@
         <v>111.6822695035226</v>
       </c>
       <c r="I33" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J33" t="n">
-        <v>213.57949075017</v>
+        <v>213.5794907501699</v>
       </c>
       <c r="K33" t="n">
-        <v>317.496528526614</v>
+        <v>579.3171131690667</v>
       </c>
       <c r="L33" t="n">
-        <v>870.6802929816012</v>
+        <v>1132.500877624054</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.150862635851</v>
+        <v>1429.761528752947</v>
       </c>
       <c r="N33" t="n">
-        <v>1364.288749544456</v>
+        <v>1686.899415661552</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.91055102039</v>
+        <v>1899.910551020391</v>
       </c>
       <c r="P33" t="n">
         <v>2366.815841249539</v>
@@ -6835,16 +6835,16 @@
         <v>569.7500878529249</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141268</v>
+        <v>480.4522928141267</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908998</v>
+        <v>409.9740412908997</v>
       </c>
       <c r="E34" t="n">
-        <v>341.6993355976154</v>
+        <v>341.6993355976153</v>
       </c>
       <c r="F34" t="n">
-        <v>274.4477759888138</v>
+        <v>274.4477759888137</v>
       </c>
       <c r="G34" t="n">
         <v>185.6716576393849</v>
@@ -6853,7 +6853,7 @@
         <v>112.7654689121255</v>
       </c>
       <c r="I34" t="n">
-        <v>73.67633343182963</v>
+        <v>73.67633343182962</v>
       </c>
       <c r="J34" t="n">
         <v>147.5387775206253</v>
@@ -6865,7 +6865,7 @@
         <v>639.4549246708311</v>
       </c>
       <c r="M34" t="n">
-        <v>952.3281006907835</v>
+        <v>952.3281006907841</v>
       </c>
       <c r="N34" t="n">
         <v>1265.052408081239</v>
@@ -6895,13 +6895,13 @@
         <v>1171.044301205238</v>
       </c>
       <c r="W34" t="n">
-        <v>961.265519057386</v>
+        <v>961.2655190573857</v>
       </c>
       <c r="X34" t="n">
-        <v>812.9143560484773</v>
+        <v>812.9143560484772</v>
       </c>
       <c r="Y34" t="n">
-        <v>671.760164794056</v>
+        <v>671.7601647940559</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>1207.233734962951</v>
       </c>
       <c r="C35" t="n">
-        <v>1020.260867907515</v>
+        <v>1020.260867907514</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857392</v>
+        <v>843.9848191857388</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724701</v>
+        <v>640.1862164724697</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678375</v>
+        <v>411.1899615678373</v>
       </c>
       <c r="G35" t="n">
         <v>176.5206159745147</v>
@@ -6941,22 +6941,22 @@
         <v>405.0078103037383</v>
       </c>
       <c r="L35" t="n">
-        <v>610.6556105933528</v>
+        <v>610.6556105933525</v>
       </c>
       <c r="M35" t="n">
-        <v>871.1478499486674</v>
+        <v>871.1478499486672</v>
       </c>
       <c r="N35" t="n">
-        <v>1140.468934451836</v>
+        <v>1140.468934451835</v>
       </c>
       <c r="O35" t="n">
-        <v>1453.616288485392</v>
+        <v>1427.217543448214</v>
       </c>
       <c r="P35" t="n">
-        <v>1943.364304554293</v>
+        <v>1916.965559517115</v>
       </c>
       <c r="Q35" t="n">
-        <v>2233.92290880335</v>
+        <v>2207.524163766172</v>
       </c>
       <c r="R35" t="n">
         <v>2233.92290880335</v>
@@ -6965,10 +6965,10 @@
         <v>2233.92290880335</v>
       </c>
       <c r="T35" t="n">
-        <v>2202.989708919826</v>
+        <v>2202.989708919825</v>
       </c>
       <c r="U35" t="n">
-        <v>2131.321958452774</v>
+        <v>2131.321958452773</v>
       </c>
       <c r="V35" t="n">
         <v>1982.248720994178</v>
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>911.6400151876073</v>
+        <v>918.507695065905</v>
       </c>
       <c r="C36" t="n">
-        <v>737.1869859064803</v>
+        <v>744.054665784778</v>
       </c>
       <c r="D36" t="n">
-        <v>624.3686390434102</v>
+        <v>595.1202561235267</v>
       </c>
       <c r="E36" t="n">
         <v>465.1311840379547</v>
@@ -7017,19 +7017,19 @@
         <v>184.5816154944073</v>
       </c>
       <c r="K36" t="n">
-        <v>550.3192379133043</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L36" t="n">
-        <v>800.9819744010611</v>
+        <v>736.3710605178666</v>
       </c>
       <c r="M36" t="n">
-        <v>1037.452544055311</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N36" t="n">
-        <v>1294.590430963916</v>
+        <v>1525.737550100946</v>
       </c>
       <c r="O36" t="n">
-        <v>1507.601566322755</v>
+        <v>1738.748685459785</v>
       </c>
       <c r="P36" t="n">
         <v>1974.506856551903</v>
@@ -7038,28 +7038,28 @@
         <v>2233.92290880335</v>
       </c>
       <c r="R36" t="n">
-        <v>2227.055228925052</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S36" t="n">
-        <v>2227.055228925052</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T36" t="n">
-        <v>2212.980310147441</v>
+        <v>2219.847990025739</v>
       </c>
       <c r="U36" t="n">
-        <v>1984.856616138106</v>
+        <v>1991.724296016404</v>
       </c>
       <c r="V36" t="n">
-        <v>1749.704507906364</v>
+        <v>1756.572187784661</v>
       </c>
       <c r="W36" t="n">
-        <v>1495.467151178162</v>
+        <v>1502.33483105646</v>
       </c>
       <c r="X36" t="n">
-        <v>1287.615650972629</v>
+        <v>1294.483330850927</v>
       </c>
       <c r="Y36" t="n">
-        <v>1079.855352207675</v>
+        <v>1086.723032085973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.95469517363841</v>
+        <v>195.8446426715488</v>
       </c>
       <c r="C37" t="n">
-        <v>48.95469517363841</v>
+        <v>195.8446426715488</v>
       </c>
       <c r="D37" t="n">
-        <v>48.95469517363841</v>
+        <v>195.8446426715488</v>
       </c>
       <c r="E37" t="n">
-        <v>48.95469517363841</v>
+        <v>195.8446426715488</v>
       </c>
       <c r="F37" t="n">
-        <v>48.95469517363841</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="G37" t="n">
-        <v>48.95469517363841</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="H37" t="n">
-        <v>48.95469517363841</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="I37" t="n">
-        <v>48.95469517363841</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="J37" t="n">
         <v>44.678458176067</v>
@@ -7111,34 +7111,34 @@
         <v>1050.717852977647</v>
       </c>
       <c r="P37" t="n">
-        <v>1198.965005326556</v>
+        <v>1198.965005326555</v>
       </c>
       <c r="Q37" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="R37" t="n">
-        <v>1096.338858258427</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S37" t="n">
-        <v>1074.240163528295</v>
+        <v>1156.708552114122</v>
       </c>
       <c r="T37" t="n">
-        <v>1031.422427817064</v>
+        <v>931.9011665179161</v>
       </c>
       <c r="U37" t="n">
-        <v>924.270392485141</v>
+        <v>642.7594813010184</v>
       </c>
       <c r="V37" t="n">
-        <v>787.1539952521464</v>
+        <v>388.0749930951314</v>
       </c>
       <c r="W37" t="n">
-        <v>497.7368252151858</v>
+        <v>280.6474729431459</v>
       </c>
       <c r="X37" t="n">
-        <v>269.7472743171685</v>
+        <v>234.6475719301037</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.95469517363841</v>
+        <v>195.8446426715488</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1207.233734962952</v>
+        <v>1207.23373496295</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907515</v>
+        <v>1020.260867907514</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857395</v>
+        <v>843.9848191857384</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724704</v>
+        <v>640.1862164724696</v>
       </c>
       <c r="F38" t="n">
-        <v>411.1899615678379</v>
+        <v>411.1899615678373</v>
       </c>
       <c r="G38" t="n">
         <v>176.5206159745147</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="I38" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J38" t="n">
-        <v>268.9868424400234</v>
+        <v>268.9868424400233</v>
       </c>
       <c r="K38" t="n">
-        <v>405.0078103037384</v>
+        <v>405.0078103037383</v>
       </c>
       <c r="L38" t="n">
-        <v>610.6556105933528</v>
+        <v>610.6556105933525</v>
       </c>
       <c r="M38" t="n">
-        <v>871.1478499486674</v>
+        <v>871.1478499486672</v>
       </c>
       <c r="N38" t="n">
-        <v>1140.468934451836</v>
+        <v>1424.043769877496</v>
       </c>
       <c r="O38" t="n">
-        <v>1453.616288485392</v>
+        <v>1665.020771679565</v>
       </c>
       <c r="P38" t="n">
-        <v>1943.364304554294</v>
+        <v>1943.364304554293</v>
       </c>
       <c r="Q38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="R38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S38" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919826</v>
+        <v>2202.989708919825</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452774</v>
+        <v>2131.321958452773</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.248720994179</v>
+        <v>1982.248720994178</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.46971560904</v>
+        <v>1811.469715609038</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232935</v>
+        <v>1619.993607232934</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142098</v>
+        <v>1411.843925142097</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>766.4346184288911</v>
+        <v>664.0095432602853</v>
       </c>
       <c r="C39" t="n">
-        <v>591.9815891477641</v>
+        <v>489.5565139791584</v>
       </c>
       <c r="D39" t="n">
-        <v>443.0471794865128</v>
+        <v>340.6221043179071</v>
       </c>
       <c r="E39" t="n">
-        <v>283.8097244810573</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="F39" t="n">
-        <v>137.2751665079423</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="G39" t="n">
-        <v>44.67845817606702</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="H39" t="n">
-        <v>44.67845817606702</v>
+        <v>82.68439424776003</v>
       </c>
       <c r="I39" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J39" t="n">
-        <v>59.75149050740259</v>
+        <v>184.5816154944073</v>
       </c>
       <c r="K39" t="n">
-        <v>425.4891129262995</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L39" t="n">
-        <v>978.3850328551289</v>
+        <v>736.3710605178666</v>
       </c>
       <c r="M39" t="n">
-        <v>1214.855602509379</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N39" t="n">
-        <v>1471.993489417984</v>
+        <v>1229.979517080721</v>
       </c>
       <c r="O39" t="n">
-        <v>1715.578081181246</v>
+        <v>1507.601566322755</v>
       </c>
       <c r="P39" t="n">
-        <v>2182.483371410394</v>
+        <v>1974.506856551903</v>
       </c>
       <c r="Q39" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="R39" t="n">
-        <v>2227.055228925053</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S39" t="n">
-        <v>2081.849832166336</v>
+        <v>2161.414406882705</v>
       </c>
       <c r="T39" t="n">
-        <v>2067.774913388725</v>
+        <v>1965.349838220119</v>
       </c>
       <c r="U39" t="n">
-        <v>1839.65121937939</v>
+        <v>1737.226144210784</v>
       </c>
       <c r="V39" t="n">
-        <v>1604.499111147647</v>
+        <v>1502.074035979042</v>
       </c>
       <c r="W39" t="n">
-        <v>1350.261754419446</v>
+        <v>1247.83667925084</v>
       </c>
       <c r="X39" t="n">
-        <v>1142.410254213913</v>
+        <v>1039.985179045307</v>
       </c>
       <c r="Y39" t="n">
-        <v>934.6499554489592</v>
+        <v>832.2248802803533</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>201.4992717900066</v>
+        <v>349.4123653723997</v>
       </c>
       <c r="C40" t="n">
-        <v>201.4992717900066</v>
+        <v>349.4123653723997</v>
       </c>
       <c r="D40" t="n">
-        <v>201.4992717900066</v>
+        <v>349.4123653723997</v>
       </c>
       <c r="E40" t="n">
         <v>201.4992717900066</v>
@@ -7330,7 +7330,7 @@
         <v>48.95469517363843</v>
       </c>
       <c r="J40" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="K40" t="n">
         <v>167.6279645973488</v>
@@ -7348,34 +7348,34 @@
         <v>1050.717852977647</v>
       </c>
       <c r="P40" t="n">
-        <v>1198.965005326556</v>
+        <v>1198.965005326555</v>
       </c>
       <c r="Q40" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="R40" t="n">
-        <v>1096.338858258427</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S40" t="n">
-        <v>892.2505136433196</v>
+        <v>1128.286624929998</v>
       </c>
       <c r="T40" t="n">
-        <v>849.4327779320884</v>
+        <v>903.479239333792</v>
       </c>
       <c r="U40" t="n">
-        <v>648.4141104194763</v>
+        <v>614.3375541168942</v>
       </c>
       <c r="V40" t="n">
-        <v>575.7192720985645</v>
+        <v>541.6427157959824</v>
       </c>
       <c r="W40" t="n">
-        <v>468.2917519465789</v>
+        <v>434.2151956439969</v>
       </c>
       <c r="X40" t="n">
-        <v>422.2918509335367</v>
+        <v>388.2152946309547</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.4992717900066</v>
+        <v>349.4123653723997</v>
       </c>
     </row>
     <row r="41">
@@ -7403,40 +7403,40 @@
         <v>176.5206159745147</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9868424400234</v>
+        <v>268.9868424400233</v>
       </c>
       <c r="K41" t="n">
-        <v>405.0078103037384</v>
+        <v>405.0078103037383</v>
       </c>
       <c r="L41" t="n">
-        <v>610.6556105933528</v>
+        <v>610.6556105933525</v>
       </c>
       <c r="M41" t="n">
-        <v>871.1478499486674</v>
+        <v>871.1478499486672</v>
       </c>
       <c r="N41" t="n">
-        <v>1140.468934451836</v>
+        <v>1140.468934451835</v>
       </c>
       <c r="O41" t="n">
-        <v>1453.616288485392</v>
+        <v>1427.217543448215</v>
       </c>
       <c r="P41" t="n">
-        <v>1943.364304554294</v>
+        <v>1916.965559517116</v>
       </c>
       <c r="Q41" t="n">
-        <v>2233.922908803351</v>
+        <v>2207.524163766173</v>
       </c>
       <c r="R41" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S41" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T41" t="n">
         <v>2202.989708919826</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>584.4449685439163</v>
+        <v>736.5180451809306</v>
       </c>
       <c r="C42" t="n">
-        <v>409.9919392627893</v>
+        <v>562.0650158998036</v>
       </c>
       <c r="D42" t="n">
-        <v>261.057529601538</v>
+        <v>413.1306062385523</v>
       </c>
       <c r="E42" t="n">
-        <v>101.8200745960825</v>
+        <v>253.8931512330968</v>
       </c>
       <c r="F42" t="n">
-        <v>82.68439424776003</v>
+        <v>107.3585932599818</v>
       </c>
       <c r="G42" t="n">
-        <v>82.68439424776003</v>
+        <v>44.678458176067</v>
       </c>
       <c r="H42" t="n">
-        <v>82.68439424776003</v>
+        <v>44.678458176067</v>
       </c>
       <c r="I42" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="J42" t="n">
         <v>184.5816154944073</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4986532708514</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L42" t="n">
-        <v>841.3945731996807</v>
+        <v>736.3710605178666</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.865142853931</v>
+        <v>972.8416301721165</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.003029762536</v>
+        <v>1229.979517080721</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.014165121375</v>
+        <v>1507.601566322755</v>
       </c>
       <c r="P42" t="n">
-        <v>1974.506856551904</v>
+        <v>1974.506856551903</v>
       </c>
       <c r="Q42" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="R42" t="n">
-        <v>2227.055228925053</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S42" t="n">
-        <v>2081.849832166336</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T42" t="n">
-        <v>1885.78526350375</v>
+        <v>2037.858340140765</v>
       </c>
       <c r="U42" t="n">
-        <v>1657.661569494415</v>
+        <v>1809.73464613143</v>
       </c>
       <c r="V42" t="n">
-        <v>1422.509461262673</v>
+        <v>1574.582537899687</v>
       </c>
       <c r="W42" t="n">
-        <v>1168.272104534471</v>
+        <v>1320.345181171485</v>
       </c>
       <c r="X42" t="n">
-        <v>960.4206043289382</v>
+        <v>1112.493680965953</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.6603055639844</v>
+        <v>904.7333822009987</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.2059650297078</v>
+        <v>599.5264498543934</v>
       </c>
       <c r="C43" t="n">
-        <v>235.2059650297078</v>
+        <v>430.5902669264865</v>
       </c>
       <c r="D43" t="n">
-        <v>235.2059650297078</v>
+        <v>280.4736275141507</v>
       </c>
       <c r="E43" t="n">
-        <v>235.2059650297078</v>
+        <v>280.4736275141507</v>
       </c>
       <c r="F43" t="n">
-        <v>235.2059650297078</v>
+        <v>280.4736275141507</v>
       </c>
       <c r="G43" t="n">
-        <v>66.79145879117027</v>
+        <v>201.4992717900066</v>
       </c>
       <c r="H43" t="n">
-        <v>44.67845817606702</v>
+        <v>48.95469517363843</v>
       </c>
       <c r="I43" t="n">
-        <v>44.67845817606702</v>
+        <v>48.95469517363843</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67845817606702</v>
+        <v>44.678458176067</v>
       </c>
       <c r="K43" t="n">
         <v>167.6279645973488</v>
@@ -7585,34 +7585,34 @@
         <v>1050.717852977647</v>
       </c>
       <c r="P43" t="n">
-        <v>1198.965005326556</v>
+        <v>1198.965005326555</v>
       </c>
       <c r="Q43" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="R43" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S43" t="n">
-        <v>1014.080224587306</v>
+        <v>1196.069874472281</v>
       </c>
       <c r="T43" t="n">
-        <v>789.2728389911001</v>
+        <v>1153.25213876105</v>
       </c>
       <c r="U43" t="n">
-        <v>682.1208036591775</v>
+        <v>1046.100103429128</v>
       </c>
       <c r="V43" t="n">
-        <v>609.4259653382657</v>
+        <v>973.4052651082158</v>
       </c>
       <c r="W43" t="n">
-        <v>501.9984451862802</v>
+        <v>865.9777449562303</v>
       </c>
       <c r="X43" t="n">
-        <v>455.9985441732379</v>
+        <v>819.9778439431881</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.2059650297078</v>
+        <v>781.1749146846331</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1020.260867907514</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857388</v>
+        <v>843.9848191857391</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724701</v>
+        <v>640.1862164724698</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678376</v>
+        <v>411.1899615678374</v>
       </c>
       <c r="G44" t="n">
         <v>176.5206159745147</v>
@@ -7649,19 +7649,19 @@
         <v>268.9868424400233</v>
       </c>
       <c r="K44" t="n">
-        <v>405.0078103037383</v>
+        <v>725.9117687491914</v>
       </c>
       <c r="L44" t="n">
-        <v>610.6556105933528</v>
+        <v>1001.406683914608</v>
       </c>
       <c r="M44" t="n">
-        <v>871.1478499486674</v>
+        <v>1261.898923269923</v>
       </c>
       <c r="N44" t="n">
-        <v>1140.468934451836</v>
+        <v>1531.220007773091</v>
       </c>
       <c r="O44" t="n">
-        <v>1453.616288485392</v>
+        <v>1772.197009575159</v>
       </c>
       <c r="P44" t="n">
         <v>1943.364304554293</v>
@@ -7676,7 +7676,7 @@
         <v>2233.92290880335</v>
       </c>
       <c r="T44" t="n">
-        <v>2202.989708919826</v>
+        <v>2202.989708919825</v>
       </c>
       <c r="U44" t="n">
         <v>2131.321958452773</v>
@@ -7691,7 +7691,7 @@
         <v>1619.993607232934</v>
       </c>
       <c r="Y44" t="n">
-        <v>1411.843925142097</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>811.0498868494038</v>
+        <v>947.7560779857885</v>
       </c>
       <c r="C45" t="n">
-        <v>636.5968575682768</v>
+        <v>773.3030487046615</v>
       </c>
       <c r="D45" t="n">
-        <v>487.6624479070255</v>
+        <v>624.3686390434102</v>
       </c>
       <c r="E45" t="n">
-        <v>328.42499290157</v>
+        <v>465.1311840379547</v>
       </c>
       <c r="F45" t="n">
-        <v>181.890434928455</v>
+        <v>318.5966260648396</v>
       </c>
       <c r="G45" t="n">
-        <v>44.678458176067</v>
+        <v>181.3846493124516</v>
       </c>
       <c r="H45" t="n">
-        <v>44.678458176067</v>
+        <v>82.68439424776003</v>
       </c>
       <c r="I45" t="n">
         <v>44.678458176067</v>
       </c>
       <c r="J45" t="n">
-        <v>184.5816154944073</v>
+        <v>59.75149050740254</v>
       </c>
       <c r="K45" t="n">
-        <v>550.3192379133043</v>
+        <v>163.6685282838466</v>
       </c>
       <c r="L45" t="n">
-        <v>1103.215157842134</v>
+        <v>349.720350888409</v>
       </c>
       <c r="M45" t="n">
-        <v>1339.685727496384</v>
+        <v>902.6162708172382</v>
       </c>
       <c r="N45" t="n">
-        <v>1596.823614404988</v>
+        <v>1455.512190746067</v>
       </c>
       <c r="O45" t="n">
-        <v>1809.834749763828</v>
+        <v>2008.408110674896</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551903</v>
+        <v>2182.483371410393</v>
       </c>
       <c r="Q45" t="n">
         <v>2233.92290880335</v>
       </c>
       <c r="R45" t="n">
-        <v>2227.055228925052</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="S45" t="n">
-        <v>2227.055228925052</v>
+        <v>2233.92290880335</v>
       </c>
       <c r="T45" t="n">
-        <v>2112.390181809238</v>
+        <v>2219.847990025739</v>
       </c>
       <c r="U45" t="n">
-        <v>1884.266487799903</v>
+        <v>2020.972678936287</v>
       </c>
       <c r="V45" t="n">
-        <v>1649.11437956816</v>
+        <v>1785.820570704545</v>
       </c>
       <c r="W45" t="n">
-        <v>1394.877022839958</v>
+        <v>1531.583213976343</v>
       </c>
       <c r="X45" t="n">
-        <v>1187.025522634426</v>
+        <v>1323.73171377081</v>
       </c>
       <c r="Y45" t="n">
-        <v>979.2652238694718</v>
+        <v>1115.971415005856</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.1852647996581</v>
+        <v>662.2888819048152</v>
       </c>
       <c r="C46" t="n">
-        <v>599.1852647996581</v>
+        <v>662.2888819048152</v>
       </c>
       <c r="D46" t="n">
-        <v>449.0686253873223</v>
+        <v>512.1722424924794</v>
       </c>
       <c r="E46" t="n">
-        <v>301.1555318049292</v>
+        <v>364.2591489100863</v>
       </c>
       <c r="F46" t="n">
-        <v>301.1555318049292</v>
+        <v>217.369201412176</v>
       </c>
       <c r="G46" t="n">
-        <v>163.4059815454715</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="H46" t="n">
-        <v>163.4059815454715</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="I46" t="n">
-        <v>44.678458176067</v>
+        <v>48.95469517363842</v>
       </c>
       <c r="J46" t="n">
         <v>44.678458176067</v>
@@ -7822,34 +7822,34 @@
         <v>1050.717852977647</v>
       </c>
       <c r="P46" t="n">
-        <v>1198.965005326556</v>
+        <v>1198.965005326555</v>
       </c>
       <c r="Q46" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="R46" t="n">
-        <v>1218.168569202414</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S46" t="n">
-        <v>1196.069874472282</v>
+        <v>1077.183841692463</v>
       </c>
       <c r="T46" t="n">
-        <v>1153.25213876105</v>
+        <v>1034.366105981232</v>
       </c>
       <c r="U46" t="n">
-        <v>1046.100103429128</v>
+        <v>927.2140706493096</v>
       </c>
       <c r="V46" t="n">
-        <v>973.405265108216</v>
+        <v>854.5192323283978</v>
       </c>
       <c r="W46" t="n">
-        <v>865.9777449562305</v>
+        <v>747.0917121764123</v>
       </c>
       <c r="X46" t="n">
-        <v>819.9778439431882</v>
+        <v>701.0918111633702</v>
       </c>
       <c r="Y46" t="n">
-        <v>599.1852647996581</v>
+        <v>662.2888819048152</v>
       </c>
     </row>
   </sheetData>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>208.2502184139042</v>
+        <v>208.2502184139051</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>208.2502184139047</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>82.15918307349543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-3.623767952376511e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>208.2502184139057</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>208.2502184139042</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>82.15918307349591</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>84.63593898379071</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>123.6142794301135</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>237.7543703513323</v>
+        <v>237.7543703513326</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.44831641224907</v>
+        <v>181.5393517526585</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.5089747967482</v>
+        <v>32.79414947539823</v>
       </c>
       <c r="R26" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>61.40412270165962</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>61.40412270165837</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>32.79414947539817</v>
+        <v>133.8435757692974</v>
       </c>
       <c r="R29" t="n">
-        <v>39.05102084553053</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.38214872838972</v>
       </c>
       <c r="O30" t="n">
-        <v>61.40412270165837</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>8.47545484762847</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.79414947539817</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>39.05102084553053</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>61.40412270165962</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>325.8693597142371</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>72.89934568837177</v>
+        <v>46.23394666092017</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>39.05102084553053</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>65.26354937696388</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>298.7454878992165</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>84.98083011768446</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>286.439227702688</v>
       </c>
       <c r="O38" t="n">
-        <v>72.89934568837222</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>108.2588261571671</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.5495932568351</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>30.88227919638672</v>
+        <v>65.26354937696436</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>72.89934568837222</v>
+        <v>46.23394666092068</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>39.05102084553053</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.5495932568351</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>65.26354937696436</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6419617726447</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>70.55264128868947</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>72.89934568837177</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>39.05102084553053</v>
+        <v>39.05102084553056</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.549593256835</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>319.6215659339183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>298.7454878992165</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>343.3179642121108</v>
       </c>
       <c r="P45" t="n">
-        <v>13.17672476006587</v>
+        <v>22.67486006049171</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>204.2388314708155</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>239.1844414298594</v>
       </c>
       <c r="F11" t="n">
-        <v>170.3199205841326</v>
+        <v>264.1301170993091</v>
       </c>
       <c r="G11" t="n">
-        <v>269.7464768811126</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801562</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841229</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>108.3748977061045</v>
       </c>
       <c r="V11" t="n">
-        <v>185.0063298277325</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>206.4950400750106</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9851720360667</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9879130210782</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.5269631286052</v>
       </c>
       <c r="D14" t="n">
         <v>211.9371129782806</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.9492392505845</v>
+        <v>167.9475609641862</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2.23370068480159</v>
       </c>
       <c r="T14" t="n">
-        <v>68.04769262841229</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.3748977061045</v>
       </c>
       <c r="V14" t="n">
         <v>185.0063298277325</v>
@@ -23558,7 +23558,7 @@
         <v>206.4950400750106</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9851720360666</v>
+        <v>144.8868944524454</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>126.8587325638245</v>
+        <v>42.11858551044629</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>190.904472870895</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1643258175149</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>143.6849591183876</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>185.2881130890915</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>47.73494529224945</v>
+        <v>89.10555695396856</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.2325423089845464</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>903294.0850663988</v>
+        <v>903294.0850663987</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1072466.597124772</v>
+        <v>1072466.597124773</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>430120.0778264452</v>
+        <v>430120.0778264449</v>
       </c>
       <c r="C2" t="n">
         <v>430120.0778264451</v>
@@ -26320,19 +26320,19 @@
         <v>430120.0778264451</v>
       </c>
       <c r="E2" t="n">
-        <v>378834.1479713895</v>
+        <v>378834.1479713893</v>
       </c>
       <c r="F2" t="n">
-        <v>378834.1479713895</v>
+        <v>378834.1479713893</v>
       </c>
       <c r="G2" t="n">
-        <v>421308.8955689927</v>
+        <v>421308.8955689925</v>
       </c>
       <c r="H2" t="n">
-        <v>421308.8955689928</v>
+        <v>421308.8955689926</v>
       </c>
       <c r="I2" t="n">
-        <v>431046.929178749</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="J2" t="n">
         <v>431046.9291787485</v>
@@ -26341,7 +26341,7 @@
         <v>431046.9291787489</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787484</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="M2" t="n">
         <v>431046.9291787487</v>
@@ -26350,10 +26350,10 @@
         <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>784058.3397149075</v>
+        <v>784058.3397149073</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63073.60320817406</v>
+        <v>63073.60320817411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15967.25538750373</v>
+        <v>15967.25538750379</v>
       </c>
       <c r="J3" t="n">
         <v>130412.6889307354</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.6032081741</v>
+        <v>63073.60320817411</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.19950072617</v>
+        <v>81062.19950072619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26439,22 +26439,22 @@
         <v>223035.6392071027</v>
       </c>
       <c r="J4" t="n">
-        <v>211908.666820539</v>
+        <v>211908.6668205391</v>
       </c>
       <c r="K4" t="n">
-        <v>211908.666820539</v>
+        <v>211908.6668205391</v>
       </c>
       <c r="L4" t="n">
-        <v>211908.666820539</v>
+        <v>211908.6668205391</v>
       </c>
       <c r="M4" t="n">
         <v>219232.2264290235</v>
       </c>
       <c r="N4" t="n">
-        <v>219232.2264290235</v>
+        <v>219232.2264290236</v>
       </c>
       <c r="O4" t="n">
-        <v>219232.2264290235</v>
+        <v>219232.2264290236</v>
       </c>
       <c r="P4" t="n">
         <v>219232.2264290235</v>
@@ -26479,13 +26479,13 @@
         <v>49278.62047697522</v>
       </c>
       <c r="F5" t="n">
-        <v>49278.62047697523</v>
+        <v>49278.62047697521</v>
       </c>
       <c r="G5" t="n">
-        <v>55906.78891211023</v>
+        <v>55906.7889121102</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.78891211021</v>
+        <v>55906.7889121102</v>
       </c>
       <c r="I5" t="n">
         <v>59557.53152950495</v>
@@ -26500,16 +26500,16 @@
         <v>77861.909650883</v>
       </c>
       <c r="M5" t="n">
+        <v>64342.04701878659</v>
+      </c>
+      <c r="N5" t="n">
         <v>64342.0470187866</v>
       </c>
-      <c r="N5" t="n">
-        <v>64342.04701878661</v>
-      </c>
       <c r="O5" t="n">
-        <v>64342.04701878661</v>
+        <v>64342.0470187866</v>
       </c>
       <c r="P5" t="n">
-        <v>64342.0470187866</v>
+        <v>64342.04701878659</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55907.51272252</v>
+        <v>-55911.92630038835</v>
       </c>
       <c r="C6" t="n">
-        <v>-55907.51272252006</v>
+        <v>-55911.92630038818</v>
       </c>
       <c r="D6" t="n">
-        <v>-55907.51272252006</v>
+        <v>-55911.92630038818</v>
       </c>
       <c r="E6" t="n">
-        <v>-622453.7059580059</v>
+        <v>-622702.3382494695</v>
       </c>
       <c r="F6" t="n">
-        <v>161604.6337569015</v>
+        <v>161356.0014654378</v>
       </c>
       <c r="G6" t="n">
-        <v>88200.10976494689</v>
+        <v>88153.73817632886</v>
       </c>
       <c r="H6" t="n">
-        <v>151273.7129731211</v>
+        <v>151227.3413845031</v>
       </c>
       <c r="I6" t="n">
-        <v>132486.5030546376</v>
+        <v>132486.5030546374</v>
       </c>
       <c r="J6" t="n">
-        <v>10863.66377659107</v>
+        <v>10863.66377659101</v>
       </c>
       <c r="K6" t="n">
         <v>141276.3527073268</v>
@@ -26552,16 +26552,16 @@
         <v>78202.74949915224</v>
       </c>
       <c r="M6" t="n">
-        <v>66410.45623021238</v>
+        <v>66410.45623021241</v>
       </c>
       <c r="N6" t="n">
         <v>147472.6557309386</v>
       </c>
       <c r="O6" t="n">
-        <v>147472.6557309387</v>
+        <v>147472.6557309383</v>
       </c>
       <c r="P6" t="n">
-        <v>147472.6557309386</v>
+        <v>147472.6557309385</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>221.58793265262</v>
       </c>
       <c r="J2" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="K2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="O2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="P2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="F3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="G3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="H3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="I3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="J3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="K3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154815</v>
       </c>
       <c r="L3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="M3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="N3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="O3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="P3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970327</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4734406970331</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970329</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="I4" t="n">
         <v>422.5185495357621</v>
       </c>
       <c r="J4" t="n">
-        <v>920.9541678978703</v>
+        <v>920.9541678978702</v>
       </c>
       <c r="K4" t="n">
-        <v>920.9541678978703</v>
+        <v>920.9541678978702</v>
       </c>
       <c r="L4" t="n">
-        <v>920.9541678978703</v>
+        <v>920.9541678978702</v>
       </c>
       <c r="M4" t="n">
+        <v>558.4807272008375</v>
+      </c>
+      <c r="N4" t="n">
         <v>558.4807272008376</v>
       </c>
-      <c r="N4" t="n">
-        <v>558.4807272008377</v>
-      </c>
       <c r="O4" t="n">
-        <v>558.4807272008377</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="P4" t="n">
-        <v>558.4807272008376</v>
+        <v>558.4807272008375</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
         <v>101.3277493759077</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>699.0700829154819</v>
+        <v>699.0700829154817</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970327</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04510883872928</v>
+        <v>60.0451088387295</v>
       </c>
       <c r="J4" t="n">
-        <v>498.4356183621082</v>
+        <v>498.4356183621081</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970327</v>
+        <v>362.4734406970329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>135.4344463895234</v>
+        <v>121.2286438926258</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H12" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S12" t="n">
         <v>142.7459286424024</v>
@@ -28226,16 +28226,16 @@
         <v>142.7459286424024</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
     </row>
     <row r="13">
@@ -28254,22 +28254,22 @@
         <v>142.7459286424024</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="F13" t="n">
         <v>142.7459286424024</v>
       </c>
       <c r="G13" t="n">
+        <v>71.3838183152014</v>
+      </c>
+      <c r="H13" t="n">
         <v>142.7459286424024</v>
-      </c>
-      <c r="H13" t="n">
-        <v>45.01582887974965</v>
       </c>
       <c r="I13" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J13" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28293,13 +28293,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>142.7459286424024</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.51539137858137</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>142.7459286424024</v>
@@ -28415,7 +28415,7 @@
         <v>142.7459286424024</v>
       </c>
       <c r="F15" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>135.8398569848641</v>
@@ -28424,7 +28424,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.51539137858217</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S15" t="n">
         <v>142.7459286424024</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
         <v>142.7459286424024</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
     </row>
     <row r="16">
@@ -28485,25 +28485,25 @@
         <v>142.7459286424024</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>142.7459286424024</v>
       </c>
       <c r="E16" t="n">
         <v>142.7459286424024</v>
       </c>
       <c r="F16" t="n">
-        <v>71.38381831520104</v>
+        <v>46.17813780850975</v>
       </c>
       <c r="G16" t="n">
         <v>142.7459286424024</v>
       </c>
       <c r="H16" t="n">
-        <v>142.7459286424024</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28658,10 +28658,10 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H18" t="n">
-        <v>8.326971763008757</v>
+        <v>97.71325251404465</v>
       </c>
       <c r="I18" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S18" t="n">
         <v>143.7533427911297</v>
@@ -28697,16 +28697,16 @@
         <v>194.10392297596</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>98.95783216066664</v>
       </c>
       <c r="W18" t="n">
         <v>221.58793265262</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28725,10 +28725,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28737,13 +28737,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J19" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S19" t="n">
-        <v>153.443379699508</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T19" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>221.58793265262</v>
       </c>
       <c r="V19" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>221.58793265262</v>
       </c>
       <c r="X19" t="n">
-        <v>221.58793265262</v>
+        <v>131.0676484063545</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -28898,7 +28898,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>24.63047504401688</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.79900307951516</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>143.7533427911297</v>
@@ -28934,10 +28934,10 @@
         <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>17.83147196450096</v>
+        <v>221.58793265262</v>
       </c>
       <c r="V21" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>45.37425896570969</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28965,16 +28965,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.7303611761521</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I22" t="n">
         <v>117.5402481357105</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>99.01037159202394</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
         <v>221.58793265262</v>
@@ -29135,7 +29135,7 @@
         <v>97.71325251404465</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>6.79900307951516</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S24" t="n">
-        <v>9.688116570454866</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T24" t="n">
-        <v>194.10392297596</v>
+        <v>22.41282004430917</v>
       </c>
       <c r="U24" t="n">
         <v>221.58793265262</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29202,13 +29202,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
         <v>151.0191308502045</v>
@@ -29217,7 +29217,7 @@
         <v>117.5402481357105</v>
       </c>
       <c r="J25" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T25" t="n">
-        <v>141.7046344541011</v>
+        <v>221.58793265262</v>
       </c>
       <c r="U25" t="n">
-        <v>221.58793265262</v>
+        <v>14.6816230478687</v>
       </c>
       <c r="V25" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>221.58793265262</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="K28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="L28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="O28" t="n">
-        <v>78.84200401021792</v>
+        <v>78.84200401021675</v>
       </c>
       <c r="P28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="R28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="S28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.84200401021756</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="K31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="L31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="N31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="O31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="P31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="R31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="S31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021698</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.8420040102169</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021764</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634748</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="36">
@@ -30068,10 +30068,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>35.75490217019933</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>28.95589909068462</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S36" t="n">
         <v>143.7533427911297</v>
       </c>
       <c r="T36" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30153,7 +30153,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.7303611761521</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
-        <v>180.1697533861253</v>
+        <v>141.202044251548</v>
       </c>
       <c r="T37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>116.3924100631634</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I38" t="n">
         <v>102.1305654634748</v>
@@ -30274,22 +30274,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y38" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="39">
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>44.16911573630757</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H39" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>71.96992588969078</v>
       </c>
       <c r="T39" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>113.0643363392652</v>
       </c>
       <c r="T40" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>87.24178752724276</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X40" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I41" t="n">
         <v>102.1305654634748</v>
@@ -30511,22 +30511,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="42">
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>126.1248888485446</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.8398569848641</v>
+        <v>73.78652325178848</v>
       </c>
       <c r="H42" t="n">
         <v>97.71325251404465</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>37.62587671097609</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30615,13 +30615,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -30630,16 +30630,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>88.54574900924948</v>
       </c>
       <c r="H43" t="n">
-        <v>129.1272602412523</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J43" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X43" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="C44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="D44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="E44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="F44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="G44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="I44" t="n">
         <v>102.1305654634748</v>
@@ -30748,22 +30748,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.71325251404465</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>37.62587671097608</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.799003079515174</v>
       </c>
       <c r="S45" t="n">
         <v>143.7533427911297</v>
       </c>
       <c r="T45" t="n">
-        <v>80.58552633130361</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>28.95589909068448</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30864,19 +30864,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.35830641928911</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>151.0191308502045</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J46" t="n">
-        <v>4.233474627595697</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S46" t="n">
-        <v>180.1697533861253</v>
+        <v>62.47258093410568</v>
       </c>
       <c r="T46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="W46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="X46" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861254</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>180.1697533861254</v>
       </c>
     </row>
   </sheetData>
@@ -31762,22 +31762,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K11" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L11" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M11" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N11" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O11" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P11" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q11" t="n">
         <v>303.4842388600572</v>
@@ -31835,43 +31835,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I12" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J12" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K12" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L12" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M12" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N12" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O12" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P12" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q12" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R12" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S12" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T12" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,10 +31914,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I13" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J13" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K13" t="n">
         <v>146.4609124534402</v>
@@ -31932,25 +31932,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P13" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R13" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S13" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T13" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31999,22 +31999,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K14" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L14" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M14" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N14" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O14" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P14" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q14" t="n">
         <v>303.4842388600572</v>
@@ -32072,43 +32072,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I15" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J15" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K15" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L15" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M15" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N15" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O15" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P15" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q15" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R15" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S15" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T15" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,10 +32151,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I16" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J16" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K16" t="n">
         <v>146.4609124534402</v>
@@ -32169,25 +32169,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P16" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R16" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S16" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T16" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32236,22 +32236,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K17" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L17" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M17" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N17" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O17" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P17" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q17" t="n">
         <v>303.4842388600572</v>
@@ -32309,43 +32309,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I18" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J18" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K18" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L18" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M18" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N18" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O18" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P18" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q18" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R18" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S18" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T18" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,10 +32388,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I19" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J19" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K19" t="n">
         <v>146.4609124534402</v>
@@ -32406,25 +32406,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O19" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P19" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q19" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R19" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S19" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T19" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32473,22 +32473,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K20" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L20" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M20" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N20" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O20" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P20" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q20" t="n">
         <v>303.4842388600572</v>
@@ -32546,43 +32546,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I21" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J21" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K21" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L21" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M21" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N21" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O21" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P21" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q21" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R21" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S21" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T21" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,10 +32625,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I22" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J22" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K22" t="n">
         <v>146.4609124534402</v>
@@ -32643,25 +32643,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O22" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P22" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R22" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S22" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T22" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,22 +32710,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K23" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L23" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M23" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N23" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O23" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P23" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q23" t="n">
         <v>303.4842388600572</v>
@@ -32783,43 +32783,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I24" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J24" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K24" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L24" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M24" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N24" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O24" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P24" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q24" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R24" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S24" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T24" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,10 +32862,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I25" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J25" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K25" t="n">
         <v>146.4609124534402</v>
@@ -32880,25 +32880,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O25" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P25" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q25" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R25" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S25" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T25" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32947,22 +32947,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K26" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L26" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M26" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N26" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O26" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P26" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q26" t="n">
         <v>303.4842388600572</v>
@@ -33020,43 +33020,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I27" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J27" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K27" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L27" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M27" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N27" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O27" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P27" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q27" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R27" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S27" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T27" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,10 +33099,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I28" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J28" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K28" t="n">
         <v>146.4609124534402</v>
@@ -33117,25 +33117,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O28" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P28" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q28" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R28" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S28" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T28" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.810331991620025</v>
+        <v>2.810331991620024</v>
       </c>
       <c r="H29" t="n">
-        <v>28.78131250917859</v>
+        <v>28.78131250917858</v>
       </c>
       <c r="I29" t="n">
         <v>108.3453241069311</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5234148737603</v>
+        <v>238.5234148737602</v>
       </c>
       <c r="K29" t="n">
-        <v>357.4847680790361</v>
+        <v>357.4847680790359</v>
       </c>
       <c r="L29" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675773</v>
       </c>
       <c r="M29" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235499</v>
       </c>
       <c r="N29" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947404</v>
       </c>
       <c r="O29" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530687</v>
       </c>
       <c r="P29" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099493</v>
       </c>
       <c r="Q29" t="n">
-        <v>303.4842388600572</v>
+        <v>303.4842388600571</v>
       </c>
       <c r="R29" t="n">
-        <v>176.5345169686016</v>
+        <v>176.5345169686015</v>
       </c>
       <c r="S29" t="n">
-        <v>64.04044025904139</v>
+        <v>64.04044025904136</v>
       </c>
       <c r="T29" t="n">
-        <v>12.30222829331667</v>
+        <v>12.30222829331666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.224826559329602</v>
+        <v>0.2248265593296019</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I30" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043897</v>
       </c>
       <c r="J30" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K30" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L30" t="n">
-        <v>326.4855137238767</v>
+        <v>326.4855137238766</v>
       </c>
       <c r="M30" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889374</v>
       </c>
       <c r="N30" t="n">
-        <v>391.0769513849543</v>
+        <v>391.0769513849542</v>
       </c>
       <c r="O30" t="n">
-        <v>357.7590074331712</v>
+        <v>357.759007433171</v>
       </c>
       <c r="P30" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563607</v>
       </c>
       <c r="Q30" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R30" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312793</v>
       </c>
       <c r="S30" t="n">
-        <v>27.92982831270815</v>
+        <v>27.92982831270814</v>
       </c>
       <c r="T30" t="n">
-        <v>6.060805718861581</v>
+        <v>6.060805718861578</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.0989250117333229</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>1.260618182306606</v>
       </c>
       <c r="H31" t="n">
-        <v>11.20804165723511</v>
+        <v>11.2080416572351</v>
       </c>
       <c r="I31" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154776</v>
       </c>
       <c r="J31" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907703</v>
       </c>
       <c r="K31" t="n">
         <v>146.4609124534402</v>
       </c>
       <c r="L31" t="n">
-        <v>187.4195432131113</v>
+        <v>187.4195432131112</v>
       </c>
       <c r="M31" t="n">
-        <v>197.6076301592074</v>
+        <v>197.6076301592073</v>
       </c>
       <c r="N31" t="n">
-        <v>192.908962388792</v>
+        <v>192.9089623887919</v>
       </c>
       <c r="O31" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P31" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R31" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262246</v>
       </c>
       <c r="S31" t="n">
-        <v>21.96913686801603</v>
+        <v>21.96913686801602</v>
       </c>
       <c r="T31" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037315</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217858</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33421,22 +33421,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K32" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L32" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M32" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N32" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O32" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P32" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q32" t="n">
         <v>303.4842388600572</v>
@@ -33494,43 +33494,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I33" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J33" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K33" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L33" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M33" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N33" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O33" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P33" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q33" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R33" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S33" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T33" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,10 +33573,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I34" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J34" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K34" t="n">
         <v>146.4609124534402</v>
@@ -33591,25 +33591,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O34" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P34" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R34" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S34" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T34" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33658,22 +33658,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K35" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L35" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M35" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N35" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O35" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P35" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q35" t="n">
         <v>303.4842388600572</v>
@@ -33731,43 +33731,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I36" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J36" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K36" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L36" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M36" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N36" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O36" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P36" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q36" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R36" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S36" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T36" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,10 +33810,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I37" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J37" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K37" t="n">
         <v>146.4609124534402</v>
@@ -33828,25 +33828,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O37" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P37" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R37" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S37" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T37" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,22 +33895,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K38" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L38" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M38" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N38" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O38" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P38" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q38" t="n">
         <v>303.4842388600572</v>
@@ -33968,43 +33968,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I39" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J39" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K39" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L39" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M39" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N39" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O39" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P39" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q39" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R39" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S39" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T39" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,10 +34047,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I40" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J40" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K40" t="n">
         <v>146.4609124534402</v>
@@ -34065,25 +34065,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O40" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P40" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q40" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R40" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S40" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T40" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,22 +34132,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K41" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L41" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M41" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N41" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O41" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P41" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q41" t="n">
         <v>303.4842388600572</v>
@@ -34205,43 +34205,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I42" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J42" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K42" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L42" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M42" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N42" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O42" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P42" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q42" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R42" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S42" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T42" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,10 +34284,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I43" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J43" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K43" t="n">
         <v>146.4609124534402</v>
@@ -34302,25 +34302,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O43" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P43" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R43" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S43" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T43" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34369,22 +34369,22 @@
         <v>238.5234148737603</v>
       </c>
       <c r="K44" t="n">
-        <v>357.4847680790361</v>
+        <v>357.484768079036</v>
       </c>
       <c r="L44" t="n">
-        <v>443.4914657675776</v>
+        <v>443.4914657675775</v>
       </c>
       <c r="M44" t="n">
-        <v>493.4697073235502</v>
+        <v>493.4697073235501</v>
       </c>
       <c r="N44" t="n">
-        <v>501.4545630947406</v>
+        <v>501.4545630947405</v>
       </c>
       <c r="O44" t="n">
-        <v>473.509324353069</v>
+        <v>473.5093243530688</v>
       </c>
       <c r="P44" t="n">
-        <v>404.1292533099495</v>
+        <v>404.1292533099494</v>
       </c>
       <c r="Q44" t="n">
         <v>303.4842388600572</v>
@@ -34442,43 +34442,43 @@
         <v>14.5221917224518</v>
       </c>
       <c r="I45" t="n">
-        <v>51.770756140439</v>
+        <v>51.77075614043898</v>
       </c>
       <c r="J45" t="n">
         <v>142.0629118498339</v>
       </c>
       <c r="K45" t="n">
-        <v>242.80814379905</v>
+        <v>242.8081437990499</v>
       </c>
       <c r="L45" t="n">
         <v>326.4855137238767</v>
       </c>
       <c r="M45" t="n">
-        <v>380.9931951889376</v>
+        <v>380.9931951889375</v>
       </c>
       <c r="N45" t="n">
         <v>391.0769513849543</v>
       </c>
       <c r="O45" t="n">
-        <v>357.7590074331712</v>
+        <v>357.7590074331711</v>
       </c>
       <c r="P45" t="n">
-        <v>287.1331440563609</v>
+        <v>287.1331440563608</v>
       </c>
       <c r="Q45" t="n">
         <v>191.9409027657753</v>
       </c>
       <c r="R45" t="n">
-        <v>93.35883107312797</v>
+        <v>93.35883107312796</v>
       </c>
       <c r="S45" t="n">
         <v>27.92982831270815</v>
       </c>
       <c r="T45" t="n">
-        <v>6.060805718861581</v>
+        <v>6.06080571886158</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09892501173332295</v>
+        <v>0.09892501173332294</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,10 +34521,10 @@
         <v>11.20804165723511</v>
       </c>
       <c r="I46" t="n">
-        <v>37.91022679154778</v>
+        <v>37.91022679154777</v>
       </c>
       <c r="J46" t="n">
-        <v>89.12570548907708</v>
+        <v>89.12570548907706</v>
       </c>
       <c r="K46" t="n">
         <v>146.4609124534402</v>
@@ -34539,25 +34539,25 @@
         <v>192.908962388792</v>
       </c>
       <c r="O46" t="n">
-        <v>178.1826499863921</v>
+        <v>178.182649986392</v>
       </c>
       <c r="P46" t="n">
         <v>152.4660390673371</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.5595825202378</v>
+        <v>105.5595825202377</v>
       </c>
       <c r="R46" t="n">
-        <v>56.68197754262249</v>
+        <v>56.68197754262248</v>
       </c>
       <c r="S46" t="n">
         <v>21.96913686801603</v>
       </c>
       <c r="T46" t="n">
-        <v>5.386277688037318</v>
+        <v>5.386277688037317</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06876099176217862</v>
+        <v>0.06876099176217861</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707403</v>
       </c>
       <c r="K11" t="n">
         <v>137.3949170340555</v>
@@ -35419,16 +35419,16 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N11" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O11" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P11" t="n">
         <v>172.8962575546799</v>
       </c>
       <c r="Q11" t="n">
-        <v>81.17854898560776</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.22528518316724</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K12" t="n">
-        <v>104.966704824691</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L12" t="n">
-        <v>187.9311339440026</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M12" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N12" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O12" t="n">
         <v>215.1627629887267</v>
@@ -35507,7 +35507,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.209347093658</v>
+        <v>260.2093470936589</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L13" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M13" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N13" t="n">
         <v>237.0411347680206</v>
@@ -35586,7 +35586,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707403</v>
       </c>
       <c r="K14" t="n">
         <v>137.3949170340555</v>
@@ -35656,16 +35656,16 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N14" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O14" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P14" t="n">
         <v>172.8962575546799</v>
       </c>
       <c r="Q14" t="n">
-        <v>81.17854898560776</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.22528518316724</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K15" t="n">
-        <v>104.966704824691</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L15" t="n">
-        <v>187.9311339440026</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M15" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N15" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O15" t="n">
         <v>215.1627629887267</v>
       </c>
       <c r="P15" t="n">
-        <v>361.4089550559354</v>
+        <v>153.1587366420306</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.95912867975383</v>
+        <v>134.1183117532492</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,10 +35808,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L16" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M16" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N16" t="n">
         <v>237.0411347680206</v>
@@ -35823,7 +35823,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707367</v>
       </c>
       <c r="K17" t="n">
         <v>137.3949170340555</v>
@@ -35893,16 +35893,16 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N17" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O17" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P17" t="n">
         <v>172.8962575546799</v>
       </c>
       <c r="Q17" t="n">
-        <v>81.17854898560776</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.22528518316724</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K18" t="n">
-        <v>104.966704824691</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L18" t="n">
-        <v>187.9311339440026</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M18" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N18" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O18" t="n">
         <v>215.1627629887267</v>
       </c>
       <c r="P18" t="n">
-        <v>361.4089550559363</v>
+        <v>153.1587366420306</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.95912867975383</v>
+        <v>260.209347093658</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L19" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M19" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N19" t="n">
         <v>237.0411347680206</v>
@@ -36060,7 +36060,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.47751034707422</v>
+        <v>57.47751034707403</v>
       </c>
       <c r="K20" t="n">
         <v>137.3949170340555</v>
@@ -36130,16 +36130,16 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N20" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O20" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P20" t="n">
         <v>172.8962575546799</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.17854898560776</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1258878981869</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L21" t="n">
-        <v>187.9311339440026</v>
+        <v>272.5670729277932</v>
       </c>
       <c r="M21" t="n">
-        <v>238.8591612669193</v>
+        <v>362.4734406970326</v>
       </c>
       <c r="N21" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O21" t="n">
         <v>215.1627629887267</v>
@@ -36218,7 +36218,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.95912867975383</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L22" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M22" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N22" t="n">
         <v>237.0411347680206</v>
@@ -36297,7 +36297,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>57.47751034707406</v>
+        <v>57.47751034707403</v>
       </c>
       <c r="K23" t="n">
         <v>137.3949170340555</v>
@@ -36367,16 +36367,16 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N23" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O23" t="n">
-        <v>243.4111129313822</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P23" t="n">
-        <v>410.6506279060122</v>
+        <v>410.6506279060125</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.17854898560776</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K24" t="n">
-        <v>369.4319418372696</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L24" t="n">
-        <v>187.9311339440026</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M24" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N24" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O24" t="n">
         <v>215.1627629887267</v>
@@ -36455,7 +36455,7 @@
         <v>153.1587366420306</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.4074450920029</v>
+        <v>233.4984804324123</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L25" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M25" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N25" t="n">
         <v>237.0411347680206</v>
@@ -36534,7 +36534,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K26" t="n">
-        <v>461.5403296052203</v>
+        <v>461.5403296052202</v>
       </c>
       <c r="L26" t="n">
         <v>625.3862653480408</v>
       </c>
       <c r="M26" t="n">
-        <v>263.1234740962774</v>
+        <v>712.6370075891099</v>
       </c>
       <c r="N26" t="n">
-        <v>709.3884239101338</v>
+        <v>709.3884239101337</v>
       </c>
       <c r="O26" t="n">
-        <v>624.2112941941276</v>
+        <v>624.2112941941275</v>
       </c>
       <c r="P26" t="n">
-        <v>494.6949657261626</v>
+        <v>172.8962575546799</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.687523782356</v>
+        <v>113.9726984610059</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K27" t="n">
-        <v>369.4319418372696</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L27" t="n">
         <v>558.7714792474617</v>
       </c>
       <c r="M27" t="n">
-        <v>238.8591612669193</v>
+        <v>300.2632839685788</v>
       </c>
       <c r="N27" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O27" t="n">
-        <v>276.5668856903851</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P27" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q27" t="n">
-        <v>262.036416415603</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262187</v>
+        <v>74.60852938262192</v>
       </c>
       <c r="K28" t="n">
-        <v>203.0334246377749</v>
+        <v>203.033424637775</v>
       </c>
       <c r="L28" t="n">
-        <v>293.851572483645</v>
+        <v>293.8515724836451</v>
       </c>
       <c r="M28" t="n">
-        <v>316.0335111312655</v>
+        <v>316.0335111312656</v>
       </c>
       <c r="N28" t="n">
         <v>315.8831387782382</v>
       </c>
       <c r="O28" t="n">
-        <v>281.6097819106496</v>
+        <v>281.6097819106485</v>
       </c>
       <c r="P28" t="n">
-        <v>228.5866023424482</v>
+        <v>228.5866023424483</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.23954327876093</v>
+        <v>98.23954327876099</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.5741255191478</v>
+        <v>226.5741255191477</v>
       </c>
       <c r="K29" t="n">
-        <v>461.5403296052203</v>
+        <v>461.5403296052201</v>
       </c>
       <c r="L29" t="n">
-        <v>625.3862653480408</v>
+        <v>625.3862653480405</v>
       </c>
       <c r="M29" t="n">
-        <v>712.6370075891099</v>
+        <v>263.1234740962772</v>
       </c>
       <c r="N29" t="n">
-        <v>709.3884239101338</v>
+        <v>709.3884239101336</v>
       </c>
       <c r="O29" t="n">
-        <v>624.2112941941276</v>
+        <v>624.2112941941273</v>
       </c>
       <c r="P29" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261624</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.9726984610059</v>
+        <v>215.022124754905</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>26.66539902745183</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>141.3163205235761</v>
+        <v>141.316320523576</v>
       </c>
       <c r="K30" t="n">
-        <v>369.4319418372696</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L30" t="n">
-        <v>558.7714792474617</v>
+        <v>187.9311339440024</v>
       </c>
       <c r="M30" t="n">
-        <v>238.8591612669193</v>
+        <v>238.859161266919</v>
       </c>
       <c r="N30" t="n">
-        <v>259.735239301621</v>
+        <v>298.1173880300105</v>
       </c>
       <c r="O30" t="n">
-        <v>276.5668856903851</v>
+        <v>609.0250822654561</v>
       </c>
       <c r="P30" t="n">
-        <v>471.6215052819678</v>
+        <v>471.6215052819676</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.036416415603</v>
+        <v>262.0364164156028</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.60852938262188</v>
+        <v>74.6085293826219</v>
       </c>
       <c r="K31" t="n">
         <v>203.033424637775</v>
@@ -37008,7 +37008,7 @@
         <v>228.5866023424482</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876096</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K32" t="n">
-        <v>461.5403296052203</v>
+        <v>145.870371881684</v>
       </c>
       <c r="L32" t="n">
         <v>625.3862653480408</v>
@@ -37078,19 +37078,19 @@
         <v>712.6370075891099</v>
       </c>
       <c r="N32" t="n">
-        <v>709.3884239101338</v>
+        <v>709.3884239101337</v>
       </c>
       <c r="O32" t="n">
-        <v>624.2112941941276</v>
+        <v>624.2112941941275</v>
       </c>
       <c r="P32" t="n">
-        <v>172.8962575546799</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.9726984610059</v>
+        <v>81.1785489856077</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.66539902745188</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K33" t="n">
-        <v>104.966704824691</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L33" t="n">
         <v>558.7714792474617</v>
       </c>
       <c r="M33" t="n">
-        <v>238.8591612669193</v>
+        <v>300.2632839685788</v>
       </c>
       <c r="N33" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O33" t="n">
-        <v>541.0321227029639</v>
+        <v>215.1627629887267</v>
       </c>
       <c r="P33" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q33" t="n">
-        <v>262.036416415603</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>293.8515724836451</v>
       </c>
       <c r="M34" t="n">
-        <v>316.033511131265</v>
+        <v>316.0335111312656</v>
       </c>
       <c r="N34" t="n">
-        <v>315.8831387782382</v>
+        <v>315.8831387782375</v>
       </c>
       <c r="O34" t="n">
-        <v>281.6097819106494</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P34" t="n">
         <v>228.5866023424483</v>
@@ -37315,19 +37315,19 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N35" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O35" t="n">
-        <v>316.310458619754</v>
+        <v>289.6450595923023</v>
       </c>
       <c r="P35" t="n">
-        <v>494.6949657261626</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q35" t="n">
         <v>293.4935396455124</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.66539902745188</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K36" t="n">
-        <v>369.4319418372696</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L36" t="n">
-        <v>253.1946833209664</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M36" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N36" t="n">
-        <v>259.735239301621</v>
+        <v>558.4807272008375</v>
       </c>
       <c r="O36" t="n">
         <v>215.1627629887267</v>
       </c>
       <c r="P36" t="n">
-        <v>471.6215052819678</v>
+        <v>238.1395667597151</v>
       </c>
       <c r="Q36" t="n">
-        <v>262.036416415603</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L37" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M37" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N37" t="n">
         <v>237.0411347680206</v>
@@ -37482,7 +37482,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N38" t="n">
-        <v>272.0414994981497</v>
+        <v>558.4807272008376</v>
       </c>
       <c r="O38" t="n">
-        <v>316.3104586197545</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P38" t="n">
-        <v>494.6949657261626</v>
+        <v>281.1550837118469</v>
       </c>
       <c r="Q38" t="n">
         <v>293.4935396455124</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15.22528518316724</v>
+        <v>141.3163205235761</v>
       </c>
       <c r="K39" t="n">
-        <v>369.4319418372696</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L39" t="n">
-        <v>558.4807272008377</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M39" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N39" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O39" t="n">
-        <v>246.0450421851135</v>
+        <v>280.426312365691</v>
       </c>
       <c r="P39" t="n">
         <v>471.6215052819678</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.95912867975383</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,10 +37704,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L40" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M40" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N40" t="n">
         <v>237.0411347680206</v>
@@ -37719,7 +37719,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,19 +37789,19 @@
         <v>263.1234740962774</v>
       </c>
       <c r="N41" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O41" t="n">
-        <v>316.3104586197545</v>
+        <v>289.6450595923028</v>
       </c>
       <c r="P41" t="n">
-        <v>494.6949657261626</v>
+        <v>494.6949657261625</v>
       </c>
       <c r="Q41" t="n">
         <v>293.4935396455124</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.66539902745188</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>141.3163205235761</v>
       </c>
       <c r="K42" t="n">
-        <v>104.966704824691</v>
+        <v>369.4319418372695</v>
       </c>
       <c r="L42" t="n">
-        <v>558.4807272008377</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M42" t="n">
-        <v>238.8591612669193</v>
+        <v>238.8591612669192</v>
       </c>
       <c r="N42" t="n">
-        <v>259.735239301621</v>
+        <v>259.7352393016209</v>
       </c>
       <c r="O42" t="n">
-        <v>215.1627629887267</v>
+        <v>280.426312365691</v>
       </c>
       <c r="P42" t="n">
-        <v>430.8006984146753</v>
+        <v>471.6215052819678</v>
       </c>
       <c r="Q42" t="n">
-        <v>262.036416415603</v>
+        <v>262.0364164156029</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,10 +37941,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L43" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M43" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N43" t="n">
         <v>237.0411347680206</v>
@@ -37956,7 +37956,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>226.5741255191478</v>
       </c>
       <c r="K44" t="n">
-        <v>137.3949170340555</v>
+        <v>461.5403296052202</v>
       </c>
       <c r="L44" t="n">
-        <v>207.7250507975903</v>
+        <v>278.2776920862797</v>
       </c>
       <c r="M44" t="n">
         <v>263.1234740962774</v>
       </c>
       <c r="N44" t="n">
-        <v>272.0414994981497</v>
+        <v>272.0414994981496</v>
       </c>
       <c r="O44" t="n">
-        <v>316.310458619754</v>
+        <v>243.4111129313821</v>
       </c>
       <c r="P44" t="n">
-        <v>494.6949657261626</v>
+        <v>172.8962575546799</v>
       </c>
       <c r="Q44" t="n">
         <v>293.4935396455124</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>141.3163205235761</v>
+        <v>15.22528518316722</v>
       </c>
       <c r="K45" t="n">
-        <v>369.4319418372696</v>
+        <v>104.9667048246909</v>
       </c>
       <c r="L45" t="n">
-        <v>558.4807272008376</v>
+        <v>187.9311339440025</v>
       </c>
       <c r="M45" t="n">
-        <v>238.8591612669193</v>
+        <v>558.4807272008375</v>
       </c>
       <c r="N45" t="n">
-        <v>259.735239301621</v>
+        <v>558.4807272008375</v>
       </c>
       <c r="O45" t="n">
-        <v>215.1627629887267</v>
+        <v>558.4807272008375</v>
       </c>
       <c r="P45" t="n">
-        <v>166.3354614020965</v>
+        <v>175.8335967025223</v>
       </c>
       <c r="Q45" t="n">
-        <v>262.036416415603</v>
+        <v>51.9591286797538</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>124.1914206275574</v>
       </c>
       <c r="L46" t="n">
-        <v>215.0095684734275</v>
+        <v>215.0095684734274</v>
       </c>
       <c r="M46" t="n">
-        <v>237.191507121048</v>
+        <v>237.1915071210479</v>
       </c>
       <c r="N46" t="n">
         <v>237.0411347680206</v>
@@ -38193,7 +38193,7 @@
         <v>149.7445983322306</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.39753926854337</v>
+        <v>19.39753926854335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
